--- a/www/docs/Persia_1520_1919_all_data.xlsx
+++ b/www/docs/Persia_1520_1919_all_data.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Data Clio Infra Format" r:id="rId3" sheetId="1"/>
-    <sheet name="Metadata" r:id="rId4" sheetId="2"/>
+    <sheet name="Data Long Format" r:id="rId4" sheetId="2"/>
+    <sheet name="Metadata" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="611">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1587,22 +1588,220 @@
     <t>2015</t>
   </si>
   <si>
-    <t>geacron/823</t>
-  </si>
-  <si>
-    <t>geacron/824</t>
-  </si>
-  <si>
-    <t>geacron/825</t>
-  </si>
-  <si>
-    <t>geacron/826</t>
+    <t>c("geacron/823", "geacron/824", "geacron/825", "geacron/826")</t>
+  </si>
+  <si>
+    <t>c(823, 824, 825, 826)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c("Persia", "Persia", "Persia", "Persia")</t>
+  </si>
+  <si>
+    <t>c("1800", "1820", "1840", "1900")</t>
+  </si>
+  <si>
+    <t>c("1819", "1839", "1899", "1919")</t>
+  </si>
+  <si>
+    <t>c("Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx")</t>
+  </si>
+  <si>
+    <t>c("Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound")</t>
+  </si>
+  <si>
+    <t>c(11, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(11.4, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.7, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(13.1, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.9, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(12.93, NA, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 11.3, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 13.55, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 17.6, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 17.2, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, 20, NA, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 20, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 20.4, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 21.85, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 21.6, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 21.25, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 21, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 22.1, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 21.5, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 22.3, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 22, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 22.8, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 22.4, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 22.45, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 22.55, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 22.5, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 23.92, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 25, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 26, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 23.5, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 24, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 27, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 29, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 27.5, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 26.8, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 28.6, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 31, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 35.1, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 36, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 50, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 51.2, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 50.9, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, 52, NA)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 51.1)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 52.5)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 55.5)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 55.7)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 57.3)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 60.2)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 60.1)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 51.3)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 53.5)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 54.25)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 54)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 54.5)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 55)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 14.4927536232)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 13.6967538693)</t>
+  </si>
+  <si>
+    <t>c(NA, NA, NA, 11.7771758332)</t>
+  </si>
+  <si>
+    <t>Borders Start Year</t>
+  </si>
+  <si>
+    <t>Borders End Year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>Persia</t>
-  </si>
-  <si>
-    <t>Exchange_Rates_UK-historical.xlsx</t>
   </si>
   <si>
     <t>Exchange Rates to UK Pound</t>
@@ -3276,577 +3475,1585 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="n">
-        <v>823.0</v>
-      </c>
-      <c r="C2"/>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
       <c r="D2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" t="s">
         <v>528</v>
       </c>
-      <c r="E2" t="s">
-        <v>308</v>
-      </c>
       <c r="F2" t="s">
-        <v>327</v>
+        <v>529</v>
       </c>
       <c r="G2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H2" t="s">
-        <v>530</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-      <c r="AN2"/>
-      <c r="AO2"/>
-      <c r="AP2"/>
-      <c r="AQ2"/>
-      <c r="AR2"/>
-      <c r="AS2"/>
-      <c r="AT2"/>
-      <c r="AU2"/>
-      <c r="AV2"/>
-      <c r="AW2"/>
-      <c r="AX2"/>
-      <c r="AY2"/>
-      <c r="AZ2"/>
-      <c r="BA2"/>
-      <c r="BB2"/>
-      <c r="BC2"/>
-      <c r="BD2"/>
-      <c r="BE2"/>
-      <c r="BF2"/>
-      <c r="BG2"/>
-      <c r="BH2"/>
-      <c r="BI2"/>
-      <c r="BJ2"/>
-      <c r="BK2"/>
-      <c r="BL2"/>
-      <c r="BM2"/>
-      <c r="BN2"/>
-      <c r="BO2"/>
-      <c r="BP2"/>
-      <c r="BQ2"/>
-      <c r="BR2"/>
-      <c r="BS2"/>
-      <c r="BT2"/>
-      <c r="BU2"/>
-      <c r="BV2"/>
-      <c r="BW2"/>
-      <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
-      <c r="CA2"/>
-      <c r="CB2"/>
-      <c r="CC2"/>
-      <c r="CD2"/>
-      <c r="CE2"/>
-      <c r="CF2"/>
-      <c r="CG2"/>
-      <c r="CH2"/>
-      <c r="CI2"/>
-      <c r="CJ2"/>
-      <c r="CK2"/>
-      <c r="CL2"/>
-      <c r="CM2"/>
-      <c r="CN2"/>
-      <c r="CO2"/>
-      <c r="CP2"/>
-      <c r="CQ2"/>
-      <c r="CR2"/>
-      <c r="CS2"/>
-      <c r="CT2"/>
-      <c r="CU2"/>
-      <c r="CV2"/>
-      <c r="CW2"/>
-      <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-      <c r="DA2"/>
-      <c r="DB2"/>
-      <c r="DC2"/>
-      <c r="DD2"/>
-      <c r="DE2"/>
-      <c r="DF2"/>
-      <c r="DG2"/>
-      <c r="DH2"/>
-      <c r="DI2"/>
-      <c r="DJ2"/>
-      <c r="DK2"/>
-      <c r="DL2"/>
-      <c r="DM2"/>
-      <c r="DN2"/>
-      <c r="DO2"/>
-      <c r="DP2"/>
-      <c r="DQ2"/>
-      <c r="DR2"/>
-      <c r="DS2"/>
-      <c r="DT2"/>
-      <c r="DU2"/>
-      <c r="DV2"/>
-      <c r="DW2"/>
-      <c r="DX2"/>
-      <c r="DY2"/>
-      <c r="DZ2"/>
-      <c r="EA2"/>
-      <c r="EB2"/>
-      <c r="EC2"/>
-      <c r="ED2"/>
-      <c r="EE2"/>
-      <c r="EF2"/>
-      <c r="EG2"/>
-      <c r="EH2"/>
-      <c r="EI2"/>
-      <c r="EJ2"/>
-      <c r="EK2"/>
-      <c r="EL2"/>
-      <c r="EM2"/>
-      <c r="EN2"/>
-      <c r="EO2"/>
-      <c r="EP2"/>
-      <c r="EQ2"/>
-      <c r="ER2"/>
-      <c r="ES2"/>
-      <c r="ET2"/>
-      <c r="EU2"/>
-      <c r="EV2"/>
-      <c r="EW2"/>
-      <c r="EX2"/>
-      <c r="EY2"/>
-      <c r="EZ2"/>
-      <c r="FA2"/>
-      <c r="FB2"/>
-      <c r="FC2"/>
-      <c r="FD2"/>
-      <c r="FE2"/>
-      <c r="FF2"/>
-      <c r="FG2"/>
-      <c r="FH2"/>
-      <c r="FI2"/>
-      <c r="FJ2"/>
-      <c r="FK2"/>
-      <c r="FL2"/>
-      <c r="FM2"/>
-      <c r="FN2"/>
-      <c r="FO2"/>
-      <c r="FP2"/>
-      <c r="FQ2"/>
-      <c r="FR2"/>
-      <c r="FS2"/>
-      <c r="FT2"/>
-      <c r="FU2"/>
-      <c r="FV2"/>
-      <c r="FW2"/>
-      <c r="FX2"/>
-      <c r="FY2"/>
-      <c r="FZ2"/>
-      <c r="GA2"/>
-      <c r="GB2"/>
-      <c r="GC2"/>
-      <c r="GD2"/>
-      <c r="GE2"/>
-      <c r="GF2"/>
-      <c r="GG2"/>
-      <c r="GH2"/>
-      <c r="GI2"/>
-      <c r="GJ2"/>
-      <c r="GK2"/>
-      <c r="GL2"/>
-      <c r="GM2"/>
-      <c r="GN2"/>
-      <c r="GO2"/>
-      <c r="GP2"/>
-      <c r="GQ2"/>
-      <c r="GR2"/>
-      <c r="GS2"/>
-      <c r="GT2"/>
-      <c r="GU2"/>
-      <c r="GV2"/>
-      <c r="GW2"/>
-      <c r="GX2"/>
-      <c r="GY2"/>
-      <c r="GZ2"/>
-      <c r="HA2"/>
-      <c r="HB2"/>
-      <c r="HC2"/>
-      <c r="HD2"/>
-      <c r="HE2"/>
-      <c r="HF2"/>
-      <c r="HG2"/>
-      <c r="HH2"/>
-      <c r="HI2"/>
-      <c r="HJ2"/>
-      <c r="HK2"/>
-      <c r="HL2"/>
-      <c r="HM2"/>
-      <c r="HN2"/>
-      <c r="HO2"/>
-      <c r="HP2"/>
-      <c r="HQ2"/>
-      <c r="HR2"/>
-      <c r="HS2"/>
-      <c r="HT2"/>
-      <c r="HU2"/>
-      <c r="HV2"/>
-      <c r="HW2"/>
-      <c r="HX2"/>
-      <c r="HY2"/>
-      <c r="HZ2"/>
-      <c r="IA2"/>
-      <c r="IB2"/>
-      <c r="IC2"/>
-      <c r="ID2"/>
-      <c r="IE2"/>
-      <c r="IF2"/>
-      <c r="IG2"/>
-      <c r="IH2"/>
-      <c r="II2"/>
-      <c r="IJ2"/>
-      <c r="IK2"/>
-      <c r="IL2"/>
-      <c r="IM2"/>
-      <c r="IN2"/>
-      <c r="IO2"/>
-      <c r="IP2"/>
-      <c r="IQ2"/>
-      <c r="IR2"/>
-      <c r="IS2"/>
-      <c r="IT2"/>
-      <c r="IU2"/>
-      <c r="IV2"/>
-      <c r="IW2"/>
-      <c r="IX2"/>
-      <c r="IY2"/>
-      <c r="IZ2"/>
-      <c r="JA2"/>
-      <c r="JB2"/>
-      <c r="JC2"/>
-      <c r="JD2"/>
-      <c r="JE2"/>
-      <c r="JF2"/>
-      <c r="JG2"/>
-      <c r="JH2"/>
-      <c r="JI2"/>
-      <c r="JJ2"/>
-      <c r="JK2"/>
-      <c r="JL2"/>
-      <c r="JM2"/>
-      <c r="JN2"/>
-      <c r="JO2"/>
-      <c r="JP2"/>
-      <c r="JQ2"/>
-      <c r="JR2"/>
-      <c r="JS2"/>
-      <c r="JT2"/>
-      <c r="JU2"/>
-      <c r="JV2"/>
-      <c r="JW2"/>
-      <c r="JX2"/>
-      <c r="JY2"/>
-      <c r="JZ2"/>
-      <c r="KA2"/>
-      <c r="KB2"/>
-      <c r="KC2"/>
-      <c r="KD2"/>
-      <c r="KE2"/>
-      <c r="KF2"/>
-      <c r="KG2"/>
-      <c r="KH2"/>
-      <c r="KI2"/>
-      <c r="KJ2"/>
-      <c r="KK2"/>
-      <c r="KL2"/>
-      <c r="KM2"/>
-      <c r="KN2"/>
-      <c r="KO2"/>
-      <c r="KP2"/>
-      <c r="KQ2"/>
-      <c r="KR2"/>
-      <c r="KS2"/>
-      <c r="KT2"/>
-      <c r="KU2"/>
-      <c r="KV2"/>
-      <c r="KW2"/>
-      <c r="KX2"/>
-      <c r="KY2"/>
-      <c r="KZ2"/>
-      <c r="LA2"/>
-      <c r="LB2"/>
-      <c r="LC2"/>
-      <c r="LD2"/>
-      <c r="LE2"/>
-      <c r="LF2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="LG2"/>
-      <c r="LH2"/>
-      <c r="LI2" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="LJ2"/>
-      <c r="LK2" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="LO2"/>
-      <c r="LP2"/>
-      <c r="LQ2"/>
-      <c r="LR2"/>
-      <c r="LS2"/>
-      <c r="LT2"/>
-      <c r="LU2"/>
-      <c r="LV2"/>
-      <c r="LW2"/>
-      <c r="LX2"/>
-      <c r="LY2"/>
-      <c r="LZ2"/>
-      <c r="MA2"/>
-      <c r="MB2"/>
-      <c r="MC2"/>
-      <c r="MD2"/>
-      <c r="ME2"/>
-      <c r="MF2"/>
-      <c r="MG2"/>
-      <c r="MH2"/>
-      <c r="MI2"/>
-      <c r="MJ2"/>
-      <c r="MK2"/>
-      <c r="ML2"/>
-      <c r="MM2"/>
-      <c r="MN2"/>
-      <c r="MO2"/>
-      <c r="MP2"/>
-      <c r="MQ2"/>
-      <c r="MR2"/>
-      <c r="MS2"/>
-      <c r="MT2"/>
-      <c r="MU2"/>
-      <c r="MV2"/>
-      <c r="MW2"/>
-      <c r="MX2"/>
-      <c r="MY2"/>
-      <c r="MZ2"/>
-      <c r="NA2"/>
-      <c r="NB2"/>
-      <c r="NC2"/>
-      <c r="ND2"/>
-      <c r="NE2"/>
-      <c r="NF2"/>
-      <c r="NG2"/>
-      <c r="NH2"/>
-      <c r="NI2"/>
-      <c r="NJ2"/>
-      <c r="NK2"/>
-      <c r="NL2"/>
-      <c r="NM2"/>
-      <c r="NN2"/>
-      <c r="NO2"/>
-      <c r="NP2"/>
-      <c r="NQ2"/>
-      <c r="NR2"/>
-      <c r="NS2"/>
-      <c r="NT2"/>
-      <c r="NU2"/>
-      <c r="NV2"/>
-      <c r="NW2"/>
-      <c r="NX2"/>
-      <c r="NY2"/>
-      <c r="NZ2"/>
-      <c r="OA2"/>
-      <c r="OB2"/>
-      <c r="OC2"/>
-      <c r="OD2"/>
-      <c r="OE2"/>
-      <c r="OF2"/>
-      <c r="OG2"/>
-      <c r="OH2"/>
-      <c r="OI2"/>
-      <c r="OJ2"/>
-      <c r="OK2"/>
-      <c r="OL2"/>
-      <c r="OM2"/>
-      <c r="ON2"/>
-      <c r="OO2"/>
-      <c r="OP2"/>
-      <c r="OQ2"/>
-      <c r="OR2"/>
-      <c r="OS2"/>
-      <c r="OT2"/>
-      <c r="OU2"/>
-      <c r="OV2"/>
-      <c r="OW2"/>
-      <c r="OX2"/>
-      <c r="OY2"/>
-      <c r="OZ2"/>
-      <c r="PA2"/>
-      <c r="PB2"/>
-      <c r="PC2"/>
-      <c r="PD2"/>
-      <c r="PE2"/>
-      <c r="PF2"/>
-      <c r="PG2"/>
-      <c r="PH2"/>
-      <c r="PI2"/>
-      <c r="PJ2"/>
-      <c r="PK2"/>
-      <c r="PL2"/>
-      <c r="PM2"/>
-      <c r="PN2"/>
-      <c r="PO2"/>
-      <c r="PP2"/>
-      <c r="PQ2"/>
-      <c r="PR2"/>
-      <c r="PS2"/>
-      <c r="PT2"/>
-      <c r="PU2"/>
-      <c r="PV2"/>
-      <c r="PW2"/>
-      <c r="PX2"/>
-      <c r="PY2"/>
-      <c r="PZ2"/>
-      <c r="QA2"/>
-      <c r="QB2"/>
-      <c r="QC2"/>
-      <c r="QD2"/>
-      <c r="QE2"/>
-      <c r="QF2"/>
-      <c r="QG2"/>
-      <c r="QH2"/>
-      <c r="QI2"/>
-      <c r="QJ2"/>
-      <c r="QK2"/>
-      <c r="QL2"/>
-      <c r="QM2"/>
-      <c r="QN2"/>
-      <c r="QO2"/>
-      <c r="QP2"/>
-      <c r="QQ2"/>
-      <c r="QR2"/>
-      <c r="QS2"/>
-      <c r="QT2"/>
-      <c r="QU2"/>
-      <c r="QV2"/>
-      <c r="QW2"/>
-      <c r="QX2"/>
-      <c r="QY2"/>
-      <c r="QZ2"/>
-      <c r="RA2"/>
-      <c r="RB2"/>
-      <c r="RC2"/>
-      <c r="RD2"/>
-      <c r="RE2"/>
-      <c r="RF2"/>
-      <c r="RG2"/>
-      <c r="RH2"/>
-      <c r="RI2"/>
-      <c r="RJ2"/>
-      <c r="RK2"/>
-      <c r="RL2"/>
-      <c r="RM2"/>
-      <c r="RN2"/>
-      <c r="RO2"/>
-      <c r="RP2"/>
-      <c r="RQ2"/>
-      <c r="RR2"/>
-      <c r="RS2"/>
-      <c r="RT2"/>
-      <c r="RU2"/>
-      <c r="RV2"/>
-      <c r="RW2"/>
-      <c r="RX2"/>
-      <c r="RY2"/>
-      <c r="RZ2"/>
-      <c r="SA2"/>
-      <c r="SB2"/>
-      <c r="SC2"/>
-      <c r="SD2"/>
-      <c r="SE2"/>
-      <c r="SF2"/>
-      <c r="SG2"/>
-      <c r="SH2"/>
-      <c r="SI2"/>
-      <c r="SJ2"/>
-      <c r="SK2"/>
-      <c r="SL2"/>
-      <c r="SM2"/>
-      <c r="SN2"/>
-      <c r="SO2"/>
-      <c r="SP2"/>
-      <c r="SQ2"/>
-      <c r="SR2"/>
-      <c r="SS2"/>
-      <c r="ST2"/>
-      <c r="SU2"/>
-      <c r="SV2"/>
-      <c r="SW2"/>
-      <c r="SX2"/>
-      <c r="SY2"/>
-      <c r="SZ2"/>
-      <c r="TA2"/>
-      <c r="TB2"/>
-      <c r="TC2"/>
-      <c r="TD2"/>
+        <v>531</v>
+      </c>
+      <c r="I2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" t="s">
+        <v>526</v>
+      </c>
+      <c r="K2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L2" t="s">
+        <v>526</v>
+      </c>
+      <c r="M2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N2" t="s">
+        <v>526</v>
+      </c>
+      <c r="O2" t="s">
+        <v>526</v>
+      </c>
+      <c r="P2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>526</v>
+      </c>
+      <c r="R2" t="s">
+        <v>526</v>
+      </c>
+      <c r="S2" t="s">
+        <v>526</v>
+      </c>
+      <c r="T2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U2" t="s">
+        <v>526</v>
+      </c>
+      <c r="V2" t="s">
+        <v>526</v>
+      </c>
+      <c r="W2" t="s">
+        <v>526</v>
+      </c>
+      <c r="X2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="II2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="JZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="KZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>532</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>533</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>534</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>535</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>536</v>
+      </c>
+      <c r="LN2" t="s">
+        <v>537</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>538</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>539</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>540</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>541</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>542</v>
+      </c>
+      <c r="MF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ML2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MM2" t="s">
+        <v>543</v>
+      </c>
+      <c r="MN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MO2" t="s">
+        <v>544</v>
+      </c>
+      <c r="MP2" t="s">
+        <v>545</v>
+      </c>
+      <c r="MQ2" t="s">
+        <v>546</v>
+      </c>
+      <c r="MR2" t="s">
+        <v>547</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>548</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="MV2" t="s">
+        <v>549</v>
+      </c>
+      <c r="MW2" t="s">
+        <v>550</v>
+      </c>
+      <c r="MX2" t="s">
+        <v>550</v>
+      </c>
+      <c r="MY2" t="s">
+        <v>551</v>
+      </c>
+      <c r="MZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NA2" t="s">
+        <v>552</v>
+      </c>
+      <c r="NB2" t="s">
+        <v>553</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>553</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>552</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>554</v>
+      </c>
+      <c r="NF2" t="s">
+        <v>555</v>
+      </c>
+      <c r="NG2" t="s">
+        <v>556</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>557</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>557</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>558</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>559</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>559</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>560</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>559</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>561</v>
+      </c>
+      <c r="NQ2" t="s">
+        <v>562</v>
+      </c>
+      <c r="NR2" t="s">
+        <v>562</v>
+      </c>
+      <c r="NS2" t="s">
+        <v>561</v>
+      </c>
+      <c r="NT2" t="s">
+        <v>559</v>
+      </c>
+      <c r="NU2" t="s">
+        <v>563</v>
+      </c>
+      <c r="NV2" t="s">
+        <v>560</v>
+      </c>
+      <c r="NW2" t="s">
+        <v>564</v>
+      </c>
+      <c r="NX2" t="s">
+        <v>565</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>563</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>563</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>566</v>
+      </c>
+      <c r="OB2" t="s">
+        <v>567</v>
+      </c>
+      <c r="OC2" t="s">
+        <v>564</v>
+      </c>
+      <c r="OD2" t="s">
+        <v>568</v>
+      </c>
+      <c r="OE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OI2" t="s">
+        <v>569</v>
+      </c>
+      <c r="OJ2" t="s">
+        <v>562</v>
+      </c>
+      <c r="OK2" t="s">
+        <v>570</v>
+      </c>
+      <c r="OL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OM2" t="s">
+        <v>571</v>
+      </c>
+      <c r="ON2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="OP2" t="s">
+        <v>572</v>
+      </c>
+      <c r="OQ2" t="s">
+        <v>573</v>
+      </c>
+      <c r="OR2" t="s">
+        <v>574</v>
+      </c>
+      <c r="OS2" t="s">
+        <v>575</v>
+      </c>
+      <c r="OT2" t="s">
+        <v>576</v>
+      </c>
+      <c r="OU2" t="s">
+        <v>577</v>
+      </c>
+      <c r="OV2" t="s">
+        <v>578</v>
+      </c>
+      <c r="OW2" t="s">
+        <v>579</v>
+      </c>
+      <c r="OX2" t="s">
+        <v>580</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>581</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>577</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>582</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>583</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>584</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>585</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>586</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>587</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>588</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>589</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>590</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="PZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="QZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SS2" t="s">
+        <v>526</v>
+      </c>
+      <c r="ST2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SU2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SV2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SW2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SX2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SY2" t="s">
+        <v>526</v>
+      </c>
+      <c r="SZ2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TB2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TC2" t="s">
+        <v>526</v>
+      </c>
+      <c r="TD2" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B3" t="n">
-        <v>824.0</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
       <c r="C3"/>
-      <c r="D3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" t="s">
-        <v>529</v>
-      </c>
-      <c r="H3" t="s">
-        <v>530</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -4167,21 +5374,13 @@
       <c r="LN3"/>
       <c r="LO3"/>
       <c r="LP3"/>
-      <c r="LQ3" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="LQ3"/>
       <c r="LR3"/>
       <c r="LS3"/>
       <c r="LT3"/>
-      <c r="LU3" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>17.2</v>
-      </c>
+      <c r="LU3"/>
+      <c r="LV3"/>
+      <c r="LW3"/>
       <c r="LX3"/>
       <c r="LY3"/>
       <c r="LZ3"/>
@@ -4189,9 +5388,7 @@
       <c r="MB3"/>
       <c r="MC3"/>
       <c r="MD3"/>
-      <c r="ME3" t="n">
-        <v>20.0</v>
-      </c>
+      <c r="ME3"/>
       <c r="MF3"/>
       <c r="MG3"/>
       <c r="MH3"/>
@@ -4375,28 +5572,14 @@
       <c r="TD3"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B4" t="n">
-        <v>825.0</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" t="s">
-        <v>528</v>
-      </c>
-      <c r="E4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" t="s">
-        <v>407</v>
-      </c>
-      <c r="G4" t="s">
-        <v>529</v>
-      </c>
-      <c r="H4" t="s">
-        <v>530</v>
-      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -4739,156 +5922,64 @@
       <c r="MJ4"/>
       <c r="MK4"/>
       <c r="ML4"/>
-      <c r="MM4" t="n">
-        <v>20.0</v>
-      </c>
+      <c r="MM4"/>
       <c r="MN4"/>
-      <c r="MO4" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>21.0</v>
-      </c>
+      <c r="MO4"/>
+      <c r="MP4"/>
+      <c r="MQ4"/>
+      <c r="MR4"/>
+      <c r="MS4"/>
       <c r="MT4"/>
       <c r="MU4"/>
-      <c r="MV4" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="MV4"/>
+      <c r="MW4"/>
+      <c r="MX4"/>
+      <c r="MY4"/>
       <c r="MZ4"/>
-      <c r="NA4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="NA4"/>
+      <c r="NB4"/>
+      <c r="NC4"/>
+      <c r="ND4"/>
+      <c r="NE4"/>
+      <c r="NF4"/>
+      <c r="NG4"/>
+      <c r="NH4"/>
+      <c r="NI4"/>
       <c r="NJ4"/>
-      <c r="NK4" t="n">
-        <v>23.92</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="NN4" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="NO4" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="NP4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="NQ4" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="NR4" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="NS4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="NT4" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="NU4" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="NV4" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="NW4" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="NX4" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="NY4" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="NZ4" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="OA4" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="OB4" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="OC4" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="OD4" t="n">
-        <v>31.0</v>
-      </c>
+      <c r="NK4"/>
+      <c r="NL4"/>
+      <c r="NM4"/>
+      <c r="NN4"/>
+      <c r="NO4"/>
+      <c r="NP4"/>
+      <c r="NQ4"/>
+      <c r="NR4"/>
+      <c r="NS4"/>
+      <c r="NT4"/>
+      <c r="NU4"/>
+      <c r="NV4"/>
+      <c r="NW4"/>
+      <c r="NX4"/>
+      <c r="NY4"/>
+      <c r="NZ4"/>
+      <c r="OA4"/>
+      <c r="OB4"/>
+      <c r="OC4"/>
+      <c r="OD4"/>
       <c r="OE4"/>
       <c r="OF4"/>
       <c r="OG4"/>
       <c r="OH4"/>
-      <c r="OI4" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="OJ4" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="OK4" t="n">
-        <v>36.0</v>
-      </c>
+      <c r="OI4"/>
+      <c r="OJ4"/>
+      <c r="OK4"/>
       <c r="OL4"/>
-      <c r="OM4" t="n">
-        <v>50.0</v>
-      </c>
+      <c r="OM4"/>
       <c r="ON4"/>
       <c r="OO4"/>
-      <c r="OP4" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="OQ4" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="OR4" t="n">
-        <v>52.0</v>
-      </c>
+      <c r="OP4"/>
+      <c r="OQ4"/>
+      <c r="OR4"/>
       <c r="OS4"/>
       <c r="OT4"/>
       <c r="OU4"/>
@@ -5007,28 +6098,14 @@
       <c r="TD4"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B5" t="n">
-        <v>826.0</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F5" t="s">
-        <v>427</v>
-      </c>
-      <c r="G5" t="s">
-        <v>529</v>
-      </c>
-      <c r="H5" t="s">
-        <v>530</v>
-      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -5429,60 +6506,26 @@
       <c r="OP5"/>
       <c r="OQ5"/>
       <c r="OR5"/>
-      <c r="OS5" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="OT5" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="OU5" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="OV5" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="OW5" t="n">
-        <v>57.3</v>
-      </c>
-      <c r="OX5" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="OY5" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="OZ5" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="PA5" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="PB5" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="PC5" t="n">
-        <v>54.25</v>
-      </c>
-      <c r="PD5" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="PE5" t="n">
-        <v>54.5</v>
-      </c>
+      <c r="OS5"/>
+      <c r="OT5"/>
+      <c r="OU5"/>
+      <c r="OV5"/>
+      <c r="OW5"/>
+      <c r="OX5"/>
+      <c r="OY5"/>
+      <c r="OZ5"/>
+      <c r="PA5"/>
+      <c r="PB5"/>
+      <c r="PC5"/>
+      <c r="PD5"/>
+      <c r="PE5"/>
       <c r="PF5"/>
-      <c r="PG5" t="n">
-        <v>55.0</v>
-      </c>
+      <c r="PG5"/>
       <c r="PH5"/>
       <c r="PI5"/>
-      <c r="PJ5" t="n">
-        <v>14.492753623199999</v>
-      </c>
-      <c r="PK5" t="n">
-        <v>13.6967538693</v>
-      </c>
-      <c r="PL5" t="n">
-        <v>11.7771758332</v>
-      </c>
+      <c r="PJ5"/>
+      <c r="PK5"/>
+      <c r="PL5"/>
       <c r="PM5"/>
       <c r="PN5"/>
       <c r="PO5"/>
@@ -5595,68 +6638,1581 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>531</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
-        <v>533</v>
+        <v>592</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C2" t="s">
-        <v>540</v>
+        <v>595</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1809.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>535</v>
-      </c>
-      <c r="B3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C3" t="s">
-        <v>541</v>
+        <v>595</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1812.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>536</v>
-      </c>
-      <c r="B4" t="s">
-        <v>530</v>
-      </c>
-      <c r="C4" t="s">
-        <v>542</v>
+        <v>595</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1814.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>537</v>
-      </c>
-      <c r="B5" t="s">
-        <v>530</v>
-      </c>
-      <c r="C5" t="s">
-        <v>543</v>
+        <v>595</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1815.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>595</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1816.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1817.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1824.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>595</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>596</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1825.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1826.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>596</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1834.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>596</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1844.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>595</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>596</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1845.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>595</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>596</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1846.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>595</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>596</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1847.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>595</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>596</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>595</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>596</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1851.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>595</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>596</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1852.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>596</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1853.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>595</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>596</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1854.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>595</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>596</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>595</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1857.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>595</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1858.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>596</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>595</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>596</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1860.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>595</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>596</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1861.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>596</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1862.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>22.55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>595</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>596</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1863.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>595</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>596</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1864.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>595</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>596</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1866.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>23.92</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>595</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>596</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1867.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>595</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>596</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1868.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>595</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>596</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1869.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>595</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>596</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1870.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>595</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>596</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1871.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>595</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>596</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1872.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>595</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>596</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1873.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>595</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>596</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1874.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>595</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>596</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1875.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>595</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>596</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>595</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>596</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1877.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>595</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>596</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1878.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>595</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>596</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>595</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>596</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>595</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>596</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1881.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>595</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>596</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1882.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>595</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>596</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1883.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>595</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>596</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1884.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>595</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>596</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1885.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>595</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>596</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1890.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>595</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>596</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1891.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>595</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>596</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1892.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>595</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>596</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1894.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>595</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>596</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1897.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>595</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>596</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1898.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>595</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>596</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>595</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>596</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>595</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>596</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1901.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>595</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>596</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1902.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>595</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>596</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1903.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>595</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>596</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>595</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>596</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1905.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>595</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>596</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1906.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>595</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>596</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1907.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>595</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>596</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1908.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>595</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>596</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>595</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>596</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1910.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>54.25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>595</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>596</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1911.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>595</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>596</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1912.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>595</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>596</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1914.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>595</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>596</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1917.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>14.49275</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>595</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>596</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1918.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13.69675</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>595</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>596</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>11.77718</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>604</v>
       </c>
       <c r="B6" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="C6" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/Persia_1520_1919_all_data.xlsx
+++ b/www/docs/Persia_1520_1919_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="549">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1588,205 +1588,25 @@
     <t>2015</t>
   </si>
   <si>
-    <t>c("geacron/823", "geacron/824", "geacron/825", "geacron/826")</t>
-  </si>
-  <si>
-    <t>c(823, 824, 825, 826)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c("Persia", "Persia", "Persia", "Persia")</t>
-  </si>
-  <si>
-    <t>c("1800", "1820", "1840", "1900")</t>
-  </si>
-  <si>
-    <t>c("1819", "1839", "1899", "1919")</t>
-  </si>
-  <si>
-    <t>c("Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx", "Exchange_Rates_UK-historical.xlsx")</t>
-  </si>
-  <si>
-    <t>c("Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound", "Exchange Rates to UK Pound")</t>
-  </si>
-  <si>
-    <t>c(11, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(11.4, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.7, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(13.1, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.9, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(12.93, NA, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 11.3, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 13.55, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 17.6, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 17.2, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, 20, NA, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 20, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 20.4, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 21.85, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 21.6, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 21.25, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 21, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 22.1, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 21.5, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 22.3, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 22, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 22.8, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 22.4, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 22.45, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 22.55, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 22.5, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 23.92, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 25, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 26, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 23.5, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 24, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 27, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 29, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 27.5, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 26.8, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 28.6, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 31, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 35.1, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 36, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 50, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 51.2, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 50.9, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, 52, NA)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 51.1)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 52.5)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 55.5)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 55.7)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 57.3)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 60.2)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 60.1)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 51.3)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 53.5)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 54.25)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 54)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 54.5)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 55)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 14.4927536232)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 13.6967538693)</t>
-  </si>
-  <si>
-    <t>c(NA, NA, NA, 11.7771758332)</t>
+    <t>geacron/823</t>
+  </si>
+  <si>
+    <t>geacron/824</t>
+  </si>
+  <si>
+    <t>geacron/825</t>
+  </si>
+  <si>
+    <t>geacron/826</t>
+  </si>
+  <si>
+    <t>Persia</t>
+  </si>
+  <si>
+    <t>Exchange_Rates_UK-historical.xlsx</t>
+  </si>
+  <si>
+    <t>Exchange Rates to UK Pound</t>
   </si>
   <si>
     <t>Borders Start Year</t>
@@ -1801,12 +1621,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Persia</t>
-  </si>
-  <si>
-    <t>Exchange Rates to UK Pound</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1834,19 +1648,19 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/data/DataAtHistoricalBorders.xlsx</t>
+    <t>https://www.clio-infra.eu/data/Persia_1520_1919_all_data.xlsx</t>
   </si>
   <si>
     <t>Bosch, Reinoud and Koen van den Bos (2015). Exchange Rates to UK Pound. http://hdl.handle.net/10622/N6BLB8, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.bib</t>
   </si>
 </sst>
 </file>
@@ -3475,1585 +3289,577 @@
       <c r="A2" t="s">
         <v>524</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>823.0</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1819.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>529</v>
+      </c>
+      <c r="H2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+      <c r="BW2"/>
+      <c r="BX2"/>
+      <c r="BY2"/>
+      <c r="BZ2"/>
+      <c r="CA2"/>
+      <c r="CB2"/>
+      <c r="CC2"/>
+      <c r="CD2"/>
+      <c r="CE2"/>
+      <c r="CF2"/>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
+      <c r="CJ2"/>
+      <c r="CK2"/>
+      <c r="CL2"/>
+      <c r="CM2"/>
+      <c r="CN2"/>
+      <c r="CO2"/>
+      <c r="CP2"/>
+      <c r="CQ2"/>
+      <c r="CR2"/>
+      <c r="CS2"/>
+      <c r="CT2"/>
+      <c r="CU2"/>
+      <c r="CV2"/>
+      <c r="CW2"/>
+      <c r="CX2"/>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+      <c r="DP2"/>
+      <c r="DQ2"/>
+      <c r="DR2"/>
+      <c r="DS2"/>
+      <c r="DT2"/>
+      <c r="DU2"/>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
+      <c r="EA2"/>
+      <c r="EB2"/>
+      <c r="EC2"/>
+      <c r="ED2"/>
+      <c r="EE2"/>
+      <c r="EF2"/>
+      <c r="EG2"/>
+      <c r="EH2"/>
+      <c r="EI2"/>
+      <c r="EJ2"/>
+      <c r="EK2"/>
+      <c r="EL2"/>
+      <c r="EM2"/>
+      <c r="EN2"/>
+      <c r="EO2"/>
+      <c r="EP2"/>
+      <c r="EQ2"/>
+      <c r="ER2"/>
+      <c r="ES2"/>
+      <c r="ET2"/>
+      <c r="EU2"/>
+      <c r="EV2"/>
+      <c r="EW2"/>
+      <c r="EX2"/>
+      <c r="EY2"/>
+      <c r="EZ2"/>
+      <c r="FA2"/>
+      <c r="FB2"/>
+      <c r="FC2"/>
+      <c r="FD2"/>
+      <c r="FE2"/>
+      <c r="FF2"/>
+      <c r="FG2"/>
+      <c r="FH2"/>
+      <c r="FI2"/>
+      <c r="FJ2"/>
+      <c r="FK2"/>
+      <c r="FL2"/>
+      <c r="FM2"/>
+      <c r="FN2"/>
+      <c r="FO2"/>
+      <c r="FP2"/>
+      <c r="FQ2"/>
+      <c r="FR2"/>
+      <c r="FS2"/>
+      <c r="FT2"/>
+      <c r="FU2"/>
+      <c r="FV2"/>
+      <c r="FW2"/>
+      <c r="FX2"/>
+      <c r="FY2"/>
+      <c r="FZ2"/>
+      <c r="GA2"/>
+      <c r="GB2"/>
+      <c r="GC2"/>
+      <c r="GD2"/>
+      <c r="GE2"/>
+      <c r="GF2"/>
+      <c r="GG2"/>
+      <c r="GH2"/>
+      <c r="GI2"/>
+      <c r="GJ2"/>
+      <c r="GK2"/>
+      <c r="GL2"/>
+      <c r="GM2"/>
+      <c r="GN2"/>
+      <c r="GO2"/>
+      <c r="GP2"/>
+      <c r="GQ2"/>
+      <c r="GR2"/>
+      <c r="GS2"/>
+      <c r="GT2"/>
+      <c r="GU2"/>
+      <c r="GV2"/>
+      <c r="GW2"/>
+      <c r="GX2"/>
+      <c r="GY2"/>
+      <c r="GZ2"/>
+      <c r="HA2"/>
+      <c r="HB2"/>
+      <c r="HC2"/>
+      <c r="HD2"/>
+      <c r="HE2"/>
+      <c r="HF2"/>
+      <c r="HG2"/>
+      <c r="HH2"/>
+      <c r="HI2"/>
+      <c r="HJ2"/>
+      <c r="HK2"/>
+      <c r="HL2"/>
+      <c r="HM2"/>
+      <c r="HN2"/>
+      <c r="HO2"/>
+      <c r="HP2"/>
+      <c r="HQ2"/>
+      <c r="HR2"/>
+      <c r="HS2"/>
+      <c r="HT2"/>
+      <c r="HU2"/>
+      <c r="HV2"/>
+      <c r="HW2"/>
+      <c r="HX2"/>
+      <c r="HY2"/>
+      <c r="HZ2"/>
+      <c r="IA2"/>
+      <c r="IB2"/>
+      <c r="IC2"/>
+      <c r="ID2"/>
+      <c r="IE2"/>
+      <c r="IF2"/>
+      <c r="IG2"/>
+      <c r="IH2"/>
+      <c r="II2"/>
+      <c r="IJ2"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+      <c r="IQ2"/>
+      <c r="IR2"/>
+      <c r="IS2"/>
+      <c r="IT2"/>
+      <c r="IU2"/>
+      <c r="IV2"/>
+      <c r="IW2"/>
+      <c r="IX2"/>
+      <c r="IY2"/>
+      <c r="IZ2"/>
+      <c r="JA2"/>
+      <c r="JB2"/>
+      <c r="JC2"/>
+      <c r="JD2"/>
+      <c r="JE2"/>
+      <c r="JF2"/>
+      <c r="JG2"/>
+      <c r="JH2"/>
+      <c r="JI2"/>
+      <c r="JJ2"/>
+      <c r="JK2"/>
+      <c r="JL2"/>
+      <c r="JM2"/>
+      <c r="JN2"/>
+      <c r="JO2"/>
+      <c r="JP2"/>
+      <c r="JQ2"/>
+      <c r="JR2"/>
+      <c r="JS2"/>
+      <c r="JT2"/>
+      <c r="JU2"/>
+      <c r="JV2"/>
+      <c r="JW2"/>
+      <c r="JX2"/>
+      <c r="JY2"/>
+      <c r="JZ2"/>
+      <c r="KA2"/>
+      <c r="KB2"/>
+      <c r="KC2"/>
+      <c r="KD2"/>
+      <c r="KE2"/>
+      <c r="KF2"/>
+      <c r="KG2"/>
+      <c r="KH2"/>
+      <c r="KI2"/>
+      <c r="KJ2"/>
+      <c r="KK2"/>
+      <c r="KL2"/>
+      <c r="KM2"/>
+      <c r="KN2"/>
+      <c r="KO2"/>
+      <c r="KP2"/>
+      <c r="KQ2"/>
+      <c r="KR2"/>
+      <c r="KS2"/>
+      <c r="KT2"/>
+      <c r="KU2"/>
+      <c r="KV2"/>
+      <c r="KW2"/>
+      <c r="KX2"/>
+      <c r="KY2"/>
+      <c r="KZ2"/>
+      <c r="LA2"/>
+      <c r="LB2"/>
+      <c r="LC2"/>
+      <c r="LD2"/>
+      <c r="LE2"/>
+      <c r="LF2" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="LG2"/>
+      <c r="LH2"/>
+      <c r="LI2" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="LJ2"/>
+      <c r="LK2" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="LO2"/>
+      <c r="LP2"/>
+      <c r="LQ2"/>
+      <c r="LR2"/>
+      <c r="LS2"/>
+      <c r="LT2"/>
+      <c r="LU2"/>
+      <c r="LV2"/>
+      <c r="LW2"/>
+      <c r="LX2"/>
+      <c r="LY2"/>
+      <c r="LZ2"/>
+      <c r="MA2"/>
+      <c r="MB2"/>
+      <c r="MC2"/>
+      <c r="MD2"/>
+      <c r="ME2"/>
+      <c r="MF2"/>
+      <c r="MG2"/>
+      <c r="MH2"/>
+      <c r="MI2"/>
+      <c r="MJ2"/>
+      <c r="MK2"/>
+      <c r="ML2"/>
+      <c r="MM2"/>
+      <c r="MN2"/>
+      <c r="MO2"/>
+      <c r="MP2"/>
+      <c r="MQ2"/>
+      <c r="MR2"/>
+      <c r="MS2"/>
+      <c r="MT2"/>
+      <c r="MU2"/>
+      <c r="MV2"/>
+      <c r="MW2"/>
+      <c r="MX2"/>
+      <c r="MY2"/>
+      <c r="MZ2"/>
+      <c r="NA2"/>
+      <c r="NB2"/>
+      <c r="NC2"/>
+      <c r="ND2"/>
+      <c r="NE2"/>
+      <c r="NF2"/>
+      <c r="NG2"/>
+      <c r="NH2"/>
+      <c r="NI2"/>
+      <c r="NJ2"/>
+      <c r="NK2"/>
+      <c r="NL2"/>
+      <c r="NM2"/>
+      <c r="NN2"/>
+      <c r="NO2"/>
+      <c r="NP2"/>
+      <c r="NQ2"/>
+      <c r="NR2"/>
+      <c r="NS2"/>
+      <c r="NT2"/>
+      <c r="NU2"/>
+      <c r="NV2"/>
+      <c r="NW2"/>
+      <c r="NX2"/>
+      <c r="NY2"/>
+      <c r="NZ2"/>
+      <c r="OA2"/>
+      <c r="OB2"/>
+      <c r="OC2"/>
+      <c r="OD2"/>
+      <c r="OE2"/>
+      <c r="OF2"/>
+      <c r="OG2"/>
+      <c r="OH2"/>
+      <c r="OI2"/>
+      <c r="OJ2"/>
+      <c r="OK2"/>
+      <c r="OL2"/>
+      <c r="OM2"/>
+      <c r="ON2"/>
+      <c r="OO2"/>
+      <c r="OP2"/>
+      <c r="OQ2"/>
+      <c r="OR2"/>
+      <c r="OS2"/>
+      <c r="OT2"/>
+      <c r="OU2"/>
+      <c r="OV2"/>
+      <c r="OW2"/>
+      <c r="OX2"/>
+      <c r="OY2"/>
+      <c r="OZ2"/>
+      <c r="PA2"/>
+      <c r="PB2"/>
+      <c r="PC2"/>
+      <c r="PD2"/>
+      <c r="PE2"/>
+      <c r="PF2"/>
+      <c r="PG2"/>
+      <c r="PH2"/>
+      <c r="PI2"/>
+      <c r="PJ2"/>
+      <c r="PK2"/>
+      <c r="PL2"/>
+      <c r="PM2"/>
+      <c r="PN2"/>
+      <c r="PO2"/>
+      <c r="PP2"/>
+      <c r="PQ2"/>
+      <c r="PR2"/>
+      <c r="PS2"/>
+      <c r="PT2"/>
+      <c r="PU2"/>
+      <c r="PV2"/>
+      <c r="PW2"/>
+      <c r="PX2"/>
+      <c r="PY2"/>
+      <c r="PZ2"/>
+      <c r="QA2"/>
+      <c r="QB2"/>
+      <c r="QC2"/>
+      <c r="QD2"/>
+      <c r="QE2"/>
+      <c r="QF2"/>
+      <c r="QG2"/>
+      <c r="QH2"/>
+      <c r="QI2"/>
+      <c r="QJ2"/>
+      <c r="QK2"/>
+      <c r="QL2"/>
+      <c r="QM2"/>
+      <c r="QN2"/>
+      <c r="QO2"/>
+      <c r="QP2"/>
+      <c r="QQ2"/>
+      <c r="QR2"/>
+      <c r="QS2"/>
+      <c r="QT2"/>
+      <c r="QU2"/>
+      <c r="QV2"/>
+      <c r="QW2"/>
+      <c r="QX2"/>
+      <c r="QY2"/>
+      <c r="QZ2"/>
+      <c r="RA2"/>
+      <c r="RB2"/>
+      <c r="RC2"/>
+      <c r="RD2"/>
+      <c r="RE2"/>
+      <c r="RF2"/>
+      <c r="RG2"/>
+      <c r="RH2"/>
+      <c r="RI2"/>
+      <c r="RJ2"/>
+      <c r="RK2"/>
+      <c r="RL2"/>
+      <c r="RM2"/>
+      <c r="RN2"/>
+      <c r="RO2"/>
+      <c r="RP2"/>
+      <c r="RQ2"/>
+      <c r="RR2"/>
+      <c r="RS2"/>
+      <c r="RT2"/>
+      <c r="RU2"/>
+      <c r="RV2"/>
+      <c r="RW2"/>
+      <c r="RX2"/>
+      <c r="RY2"/>
+      <c r="RZ2"/>
+      <c r="SA2"/>
+      <c r="SB2"/>
+      <c r="SC2"/>
+      <c r="SD2"/>
+      <c r="SE2"/>
+      <c r="SF2"/>
+      <c r="SG2"/>
+      <c r="SH2"/>
+      <c r="SI2"/>
+      <c r="SJ2"/>
+      <c r="SK2"/>
+      <c r="SL2"/>
+      <c r="SM2"/>
+      <c r="SN2"/>
+      <c r="SO2"/>
+      <c r="SP2"/>
+      <c r="SQ2"/>
+      <c r="SR2"/>
+      <c r="SS2"/>
+      <c r="ST2"/>
+      <c r="SU2"/>
+      <c r="SV2"/>
+      <c r="SW2"/>
+      <c r="SX2"/>
+      <c r="SY2"/>
+      <c r="SZ2"/>
+      <c r="TA2"/>
+      <c r="TB2"/>
+      <c r="TC2"/>
+      <c r="TD2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>525</v>
       </c>
-      <c r="C2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B3" t="n">
+        <v>824.0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1820.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1839.0</v>
+      </c>
+      <c r="G3" t="s">
         <v>529</v>
       </c>
-      <c r="G2" t="s">
-        <v>530</v>
-      </c>
-      <c r="H2" t="s">
-        <v>531</v>
-      </c>
-      <c r="I2" t="s">
-        <v>526</v>
-      </c>
-      <c r="J2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K2" t="s">
-        <v>526</v>
-      </c>
-      <c r="L2" t="s">
-        <v>526</v>
-      </c>
-      <c r="M2" t="s">
-        <v>526</v>
-      </c>
-      <c r="N2" t="s">
-        <v>526</v>
-      </c>
-      <c r="O2" t="s">
-        <v>526</v>
-      </c>
-      <c r="P2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>526</v>
-      </c>
-      <c r="R2" t="s">
-        <v>526</v>
-      </c>
-      <c r="S2" t="s">
-        <v>526</v>
-      </c>
-      <c r="T2" t="s">
-        <v>526</v>
-      </c>
-      <c r="U2" t="s">
-        <v>526</v>
-      </c>
-      <c r="V2" t="s">
-        <v>526</v>
-      </c>
-      <c r="W2" t="s">
-        <v>526</v>
-      </c>
-      <c r="X2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="II2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="JZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>532</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>533</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>534</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>535</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>536</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>537</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>538</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>539</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>540</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>541</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ME2" t="s">
-        <v>542</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ML2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MM2" t="s">
-        <v>543</v>
-      </c>
-      <c r="MN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MO2" t="s">
-        <v>544</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>545</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>546</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>547</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>548</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="MV2" t="s">
-        <v>549</v>
-      </c>
-      <c r="MW2" t="s">
-        <v>550</v>
-      </c>
-      <c r="MX2" t="s">
-        <v>550</v>
-      </c>
-      <c r="MY2" t="s">
-        <v>551</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>552</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>553</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>553</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>552</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>554</v>
-      </c>
-      <c r="NF2" t="s">
-        <v>555</v>
-      </c>
-      <c r="NG2" t="s">
-        <v>556</v>
-      </c>
-      <c r="NH2" t="s">
-        <v>557</v>
-      </c>
-      <c r="NI2" t="s">
-        <v>557</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>558</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>559</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>559</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>560</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>559</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>561</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>562</v>
-      </c>
-      <c r="NR2" t="s">
-        <v>562</v>
-      </c>
-      <c r="NS2" t="s">
-        <v>561</v>
-      </c>
-      <c r="NT2" t="s">
-        <v>559</v>
-      </c>
-      <c r="NU2" t="s">
-        <v>563</v>
-      </c>
-      <c r="NV2" t="s">
-        <v>560</v>
-      </c>
-      <c r="NW2" t="s">
-        <v>564</v>
-      </c>
-      <c r="NX2" t="s">
-        <v>565</v>
-      </c>
-      <c r="NY2" t="s">
-        <v>563</v>
-      </c>
-      <c r="NZ2" t="s">
-        <v>563</v>
-      </c>
-      <c r="OA2" t="s">
-        <v>566</v>
-      </c>
-      <c r="OB2" t="s">
-        <v>567</v>
-      </c>
-      <c r="OC2" t="s">
-        <v>564</v>
-      </c>
-      <c r="OD2" t="s">
-        <v>568</v>
-      </c>
-      <c r="OE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OI2" t="s">
-        <v>569</v>
-      </c>
-      <c r="OJ2" t="s">
-        <v>562</v>
-      </c>
-      <c r="OK2" t="s">
-        <v>570</v>
-      </c>
-      <c r="OL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OM2" t="s">
-        <v>571</v>
-      </c>
-      <c r="ON2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="OP2" t="s">
-        <v>572</v>
-      </c>
-      <c r="OQ2" t="s">
-        <v>573</v>
-      </c>
-      <c r="OR2" t="s">
-        <v>574</v>
-      </c>
-      <c r="OS2" t="s">
-        <v>575</v>
-      </c>
-      <c r="OT2" t="s">
-        <v>576</v>
-      </c>
-      <c r="OU2" t="s">
-        <v>577</v>
-      </c>
-      <c r="OV2" t="s">
-        <v>578</v>
-      </c>
-      <c r="OW2" t="s">
-        <v>579</v>
-      </c>
-      <c r="OX2" t="s">
-        <v>580</v>
-      </c>
-      <c r="OY2" t="s">
-        <v>581</v>
-      </c>
-      <c r="OZ2" t="s">
-        <v>577</v>
-      </c>
-      <c r="PA2" t="s">
-        <v>582</v>
-      </c>
-      <c r="PB2" t="s">
-        <v>583</v>
-      </c>
-      <c r="PC2" t="s">
-        <v>584</v>
-      </c>
-      <c r="PD2" t="s">
-        <v>585</v>
-      </c>
-      <c r="PE2" t="s">
-        <v>586</v>
-      </c>
-      <c r="PF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PG2" t="s">
-        <v>587</v>
-      </c>
-      <c r="PH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PJ2" t="s">
-        <v>588</v>
-      </c>
-      <c r="PK2" t="s">
-        <v>589</v>
-      </c>
-      <c r="PL2" t="s">
-        <v>590</v>
-      </c>
-      <c r="PM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="PZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="QZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RT2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="RZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SE2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SF2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SG2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SH2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SI2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SJ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SK2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SL2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SM2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SO2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SP2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SQ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SR2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SS2" t="s">
-        <v>526</v>
-      </c>
-      <c r="ST2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SU2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SV2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SW2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SX2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SY2" t="s">
-        <v>526</v>
-      </c>
-      <c r="SZ2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TA2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TB2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TC2" t="s">
-        <v>526</v>
-      </c>
-      <c r="TD2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="H3" t="s">
+        <v>530</v>
+      </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -5374,13 +4180,21 @@
       <c r="LN3"/>
       <c r="LO3"/>
       <c r="LP3"/>
-      <c r="LQ3"/>
+      <c r="LQ3" t="n">
+        <v>11.3</v>
+      </c>
       <c r="LR3"/>
       <c r="LS3"/>
       <c r="LT3"/>
-      <c r="LU3"/>
-      <c r="LV3"/>
-      <c r="LW3"/>
+      <c r="LU3" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>17.2</v>
+      </c>
       <c r="LX3"/>
       <c r="LY3"/>
       <c r="LZ3"/>
@@ -5388,7 +4202,9 @@
       <c r="MB3"/>
       <c r="MC3"/>
       <c r="MD3"/>
-      <c r="ME3"/>
+      <c r="ME3" t="n">
+        <v>20.0</v>
+      </c>
       <c r="MF3"/>
       <c r="MG3"/>
       <c r="MH3"/>
@@ -5572,14 +4388,28 @@
       <c r="TD3"/>
     </row>
     <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" t="n">
+        <v>825.0</v>
+      </c>
       <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="D4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1840.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>529</v>
+      </c>
+      <c r="H4" t="s">
+        <v>530</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -5922,64 +4752,156 @@
       <c r="MJ4"/>
       <c r="MK4"/>
       <c r="ML4"/>
-      <c r="MM4"/>
+      <c r="MM4" t="n">
+        <v>20.0</v>
+      </c>
       <c r="MN4"/>
-      <c r="MO4"/>
-      <c r="MP4"/>
-      <c r="MQ4"/>
-      <c r="MR4"/>
-      <c r="MS4"/>
+      <c r="MO4" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>21.0</v>
+      </c>
       <c r="MT4"/>
       <c r="MU4"/>
-      <c r="MV4"/>
-      <c r="MW4"/>
-      <c r="MX4"/>
-      <c r="MY4"/>
+      <c r="MV4" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>22.3</v>
+      </c>
       <c r="MZ4"/>
-      <c r="NA4"/>
-      <c r="NB4"/>
-      <c r="NC4"/>
-      <c r="ND4"/>
-      <c r="NE4"/>
-      <c r="NF4"/>
-      <c r="NG4"/>
-      <c r="NH4"/>
-      <c r="NI4"/>
+      <c r="NA4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>22.5</v>
+      </c>
       <c r="NJ4"/>
-      <c r="NK4"/>
-      <c r="NL4"/>
-      <c r="NM4"/>
-      <c r="NN4"/>
-      <c r="NO4"/>
-      <c r="NP4"/>
-      <c r="NQ4"/>
-      <c r="NR4"/>
-      <c r="NS4"/>
-      <c r="NT4"/>
-      <c r="NU4"/>
-      <c r="NV4"/>
-      <c r="NW4"/>
-      <c r="NX4"/>
-      <c r="NY4"/>
-      <c r="NZ4"/>
-      <c r="OA4"/>
-      <c r="OB4"/>
-      <c r="OC4"/>
-      <c r="OD4"/>
+      <c r="NK4" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="NN4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="NO4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="NP4" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="NQ4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="NR4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="NS4" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="NT4" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="NU4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="NV4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="NW4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="NX4" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="NY4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="NZ4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="OA4" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="OB4" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="OC4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="OD4" t="n">
+        <v>31.0</v>
+      </c>
       <c r="OE4"/>
       <c r="OF4"/>
       <c r="OG4"/>
       <c r="OH4"/>
-      <c r="OI4"/>
-      <c r="OJ4"/>
-      <c r="OK4"/>
+      <c r="OI4" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="OJ4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="OK4" t="n">
+        <v>36.0</v>
+      </c>
       <c r="OL4"/>
-      <c r="OM4"/>
+      <c r="OM4" t="n">
+        <v>50.0</v>
+      </c>
       <c r="ON4"/>
       <c r="OO4"/>
-      <c r="OP4"/>
-      <c r="OQ4"/>
-      <c r="OR4"/>
+      <c r="OP4" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="OQ4" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="OR4" t="n">
+        <v>52.0</v>
+      </c>
       <c r="OS4"/>
       <c r="OT4"/>
       <c r="OU4"/>
@@ -6098,14 +5020,28 @@
       <c r="TD4"/>
     </row>
     <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" t="n">
+        <v>826.0</v>
+      </c>
       <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="D5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1900.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1919.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H5" t="s">
+        <v>530</v>
+      </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -6506,26 +5442,60 @@
       <c r="OP5"/>
       <c r="OQ5"/>
       <c r="OR5"/>
-      <c r="OS5"/>
-      <c r="OT5"/>
-      <c r="OU5"/>
-      <c r="OV5"/>
-      <c r="OW5"/>
-      <c r="OX5"/>
-      <c r="OY5"/>
-      <c r="OZ5"/>
-      <c r="PA5"/>
-      <c r="PB5"/>
-      <c r="PC5"/>
-      <c r="PD5"/>
-      <c r="PE5"/>
+      <c r="OS5" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="OT5" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="OU5" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="OV5" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="OW5" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="OX5" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="OY5" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="OZ5" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="PA5" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="PB5" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="PC5" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="PD5" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="PE5" t="n">
+        <v>54.5</v>
+      </c>
       <c r="PF5"/>
-      <c r="PG5"/>
+      <c r="PG5" t="n">
+        <v>55.0</v>
+      </c>
       <c r="PH5"/>
       <c r="PI5"/>
-      <c r="PJ5"/>
-      <c r="PK5"/>
-      <c r="PL5"/>
+      <c r="PJ5" t="n">
+        <v>14.49275</v>
+      </c>
+      <c r="PK5" t="n">
+        <v>13.69675</v>
+      </c>
+      <c r="PL5" t="n">
+        <v>11.77718</v>
+      </c>
       <c r="PM5"/>
       <c r="PN5"/>
       <c r="PO5"/>
@@ -6641,24 +5611,24 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>591</v>
+        <v>531</v>
       </c>
       <c r="C1" t="s">
-        <v>592</v>
+        <v>532</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>593</v>
+        <v>533</v>
       </c>
       <c r="F1" t="s">
-        <v>594</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B2" t="n">
         <v>1800.0</v>
@@ -6667,7 +5637,7 @@
         <v>1819.0</v>
       </c>
       <c r="D2" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E2" t="n">
         <v>1809.0</v>
@@ -6678,7 +5648,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B3" t="n">
         <v>1800.0</v>
@@ -6687,7 +5657,7 @@
         <v>1819.0</v>
       </c>
       <c r="D3" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E3" t="n">
         <v>1812.0</v>
@@ -6698,7 +5668,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B4" t="n">
         <v>1800.0</v>
@@ -6707,7 +5677,7 @@
         <v>1819.0</v>
       </c>
       <c r="D4" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E4" t="n">
         <v>1814.0</v>
@@ -6718,7 +5688,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B5" t="n">
         <v>1800.0</v>
@@ -6727,7 +5697,7 @@
         <v>1819.0</v>
       </c>
       <c r="D5" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E5" t="n">
         <v>1815.0</v>
@@ -6738,7 +5708,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B6" t="n">
         <v>1800.0</v>
@@ -6747,7 +5717,7 @@
         <v>1819.0</v>
       </c>
       <c r="D6" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E6" t="n">
         <v>1816.0</v>
@@ -6758,7 +5728,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B7" t="n">
         <v>1800.0</v>
@@ -6767,7 +5737,7 @@
         <v>1819.0</v>
       </c>
       <c r="D7" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E7" t="n">
         <v>1817.0</v>
@@ -6778,7 +5748,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B8" t="n">
         <v>1820.0</v>
@@ -6787,7 +5757,7 @@
         <v>1839.0</v>
       </c>
       <c r="D8" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E8" t="n">
         <v>1820.0</v>
@@ -6798,7 +5768,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B9" t="n">
         <v>1820.0</v>
@@ -6807,7 +5777,7 @@
         <v>1839.0</v>
       </c>
       <c r="D9" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E9" t="n">
         <v>1824.0</v>
@@ -6818,7 +5788,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B10" t="n">
         <v>1820.0</v>
@@ -6827,7 +5797,7 @@
         <v>1839.0</v>
       </c>
       <c r="D10" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E10" t="n">
         <v>1825.0</v>
@@ -6838,7 +5808,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B11" t="n">
         <v>1820.0</v>
@@ -6847,7 +5817,7 @@
         <v>1839.0</v>
       </c>
       <c r="D11" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E11" t="n">
         <v>1826.0</v>
@@ -6858,7 +5828,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B12" t="n">
         <v>1820.0</v>
@@ -6867,7 +5837,7 @@
         <v>1839.0</v>
       </c>
       <c r="D12" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E12" t="n">
         <v>1834.0</v>
@@ -6878,7 +5848,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B13" t="n">
         <v>1840.0</v>
@@ -6887,7 +5857,7 @@
         <v>1899.0</v>
       </c>
       <c r="D13" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E13" t="n">
         <v>1842.0</v>
@@ -6898,7 +5868,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B14" t="n">
         <v>1840.0</v>
@@ -6907,7 +5877,7 @@
         <v>1899.0</v>
       </c>
       <c r="D14" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E14" t="n">
         <v>1844.0</v>
@@ -6918,7 +5888,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B15" t="n">
         <v>1840.0</v>
@@ -6927,7 +5897,7 @@
         <v>1899.0</v>
       </c>
       <c r="D15" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E15" t="n">
         <v>1845.0</v>
@@ -6938,7 +5908,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B16" t="n">
         <v>1840.0</v>
@@ -6947,7 +5917,7 @@
         <v>1899.0</v>
       </c>
       <c r="D16" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E16" t="n">
         <v>1846.0</v>
@@ -6958,7 +5928,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B17" t="n">
         <v>1840.0</v>
@@ -6967,7 +5937,7 @@
         <v>1899.0</v>
       </c>
       <c r="D17" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E17" t="n">
         <v>1847.0</v>
@@ -6978,7 +5948,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B18" t="n">
         <v>1840.0</v>
@@ -6987,7 +5957,7 @@
         <v>1899.0</v>
       </c>
       <c r="D18" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E18" t="n">
         <v>1848.0</v>
@@ -6998,7 +5968,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B19" t="n">
         <v>1840.0</v>
@@ -7007,7 +5977,7 @@
         <v>1899.0</v>
       </c>
       <c r="D19" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E19" t="n">
         <v>1851.0</v>
@@ -7018,7 +5988,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B20" t="n">
         <v>1840.0</v>
@@ -7027,7 +5997,7 @@
         <v>1899.0</v>
       </c>
       <c r="D20" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E20" t="n">
         <v>1852.0</v>
@@ -7038,7 +6008,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B21" t="n">
         <v>1840.0</v>
@@ -7047,7 +6017,7 @@
         <v>1899.0</v>
       </c>
       <c r="D21" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E21" t="n">
         <v>1853.0</v>
@@ -7058,7 +6028,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B22" t="n">
         <v>1840.0</v>
@@ -7067,7 +6037,7 @@
         <v>1899.0</v>
       </c>
       <c r="D22" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E22" t="n">
         <v>1854.0</v>
@@ -7078,7 +6048,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B23" t="n">
         <v>1840.0</v>
@@ -7087,7 +6057,7 @@
         <v>1899.0</v>
       </c>
       <c r="D23" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E23" t="n">
         <v>1856.0</v>
@@ -7098,7 +6068,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B24" t="n">
         <v>1840.0</v>
@@ -7107,7 +6077,7 @@
         <v>1899.0</v>
       </c>
       <c r="D24" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E24" t="n">
         <v>1857.0</v>
@@ -7118,7 +6088,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B25" t="n">
         <v>1840.0</v>
@@ -7127,7 +6097,7 @@
         <v>1899.0</v>
       </c>
       <c r="D25" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E25" t="n">
         <v>1858.0</v>
@@ -7138,7 +6108,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B26" t="n">
         <v>1840.0</v>
@@ -7147,7 +6117,7 @@
         <v>1899.0</v>
       </c>
       <c r="D26" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E26" t="n">
         <v>1859.0</v>
@@ -7158,7 +6128,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B27" t="n">
         <v>1840.0</v>
@@ -7167,7 +6137,7 @@
         <v>1899.0</v>
       </c>
       <c r="D27" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E27" t="n">
         <v>1860.0</v>
@@ -7178,7 +6148,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B28" t="n">
         <v>1840.0</v>
@@ -7187,7 +6157,7 @@
         <v>1899.0</v>
       </c>
       <c r="D28" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E28" t="n">
         <v>1861.0</v>
@@ -7198,7 +6168,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B29" t="n">
         <v>1840.0</v>
@@ -7207,7 +6177,7 @@
         <v>1899.0</v>
       </c>
       <c r="D29" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E29" t="n">
         <v>1862.0</v>
@@ -7218,7 +6188,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B30" t="n">
         <v>1840.0</v>
@@ -7227,7 +6197,7 @@
         <v>1899.0</v>
       </c>
       <c r="D30" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E30" t="n">
         <v>1863.0</v>
@@ -7238,7 +6208,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B31" t="n">
         <v>1840.0</v>
@@ -7247,7 +6217,7 @@
         <v>1899.0</v>
       </c>
       <c r="D31" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E31" t="n">
         <v>1864.0</v>
@@ -7258,7 +6228,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B32" t="n">
         <v>1840.0</v>
@@ -7267,7 +6237,7 @@
         <v>1899.0</v>
       </c>
       <c r="D32" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E32" t="n">
         <v>1866.0</v>
@@ -7278,7 +6248,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B33" t="n">
         <v>1840.0</v>
@@ -7287,7 +6257,7 @@
         <v>1899.0</v>
       </c>
       <c r="D33" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E33" t="n">
         <v>1867.0</v>
@@ -7298,7 +6268,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B34" t="n">
         <v>1840.0</v>
@@ -7307,7 +6277,7 @@
         <v>1899.0</v>
       </c>
       <c r="D34" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E34" t="n">
         <v>1868.0</v>
@@ -7318,7 +6288,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B35" t="n">
         <v>1840.0</v>
@@ -7327,7 +6297,7 @@
         <v>1899.0</v>
       </c>
       <c r="D35" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E35" t="n">
         <v>1869.0</v>
@@ -7338,7 +6308,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B36" t="n">
         <v>1840.0</v>
@@ -7347,7 +6317,7 @@
         <v>1899.0</v>
       </c>
       <c r="D36" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E36" t="n">
         <v>1870.0</v>
@@ -7358,7 +6328,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B37" t="n">
         <v>1840.0</v>
@@ -7367,7 +6337,7 @@
         <v>1899.0</v>
       </c>
       <c r="D37" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E37" t="n">
         <v>1871.0</v>
@@ -7378,7 +6348,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B38" t="n">
         <v>1840.0</v>
@@ -7387,7 +6357,7 @@
         <v>1899.0</v>
       </c>
       <c r="D38" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E38" t="n">
         <v>1872.0</v>
@@ -7398,7 +6368,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B39" t="n">
         <v>1840.0</v>
@@ -7407,7 +6377,7 @@
         <v>1899.0</v>
       </c>
       <c r="D39" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E39" t="n">
         <v>1873.0</v>
@@ -7418,7 +6388,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B40" t="n">
         <v>1840.0</v>
@@ -7427,7 +6397,7 @@
         <v>1899.0</v>
       </c>
       <c r="D40" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E40" t="n">
         <v>1874.0</v>
@@ -7438,7 +6408,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B41" t="n">
         <v>1840.0</v>
@@ -7447,7 +6417,7 @@
         <v>1899.0</v>
       </c>
       <c r="D41" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E41" t="n">
         <v>1875.0</v>
@@ -7458,7 +6428,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B42" t="n">
         <v>1840.0</v>
@@ -7467,7 +6437,7 @@
         <v>1899.0</v>
       </c>
       <c r="D42" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E42" t="n">
         <v>1876.0</v>
@@ -7478,7 +6448,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B43" t="n">
         <v>1840.0</v>
@@ -7487,7 +6457,7 @@
         <v>1899.0</v>
       </c>
       <c r="D43" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E43" t="n">
         <v>1877.0</v>
@@ -7498,7 +6468,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B44" t="n">
         <v>1840.0</v>
@@ -7507,7 +6477,7 @@
         <v>1899.0</v>
       </c>
       <c r="D44" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E44" t="n">
         <v>1878.0</v>
@@ -7518,7 +6488,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B45" t="n">
         <v>1840.0</v>
@@ -7527,7 +6497,7 @@
         <v>1899.0</v>
       </c>
       <c r="D45" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E45" t="n">
         <v>1879.0</v>
@@ -7538,7 +6508,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B46" t="n">
         <v>1840.0</v>
@@ -7547,7 +6517,7 @@
         <v>1899.0</v>
       </c>
       <c r="D46" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E46" t="n">
         <v>1880.0</v>
@@ -7558,7 +6528,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B47" t="n">
         <v>1840.0</v>
@@ -7567,7 +6537,7 @@
         <v>1899.0</v>
       </c>
       <c r="D47" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E47" t="n">
         <v>1881.0</v>
@@ -7578,7 +6548,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B48" t="n">
         <v>1840.0</v>
@@ -7587,7 +6557,7 @@
         <v>1899.0</v>
       </c>
       <c r="D48" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E48" t="n">
         <v>1882.0</v>
@@ -7598,7 +6568,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B49" t="n">
         <v>1840.0</v>
@@ -7607,7 +6577,7 @@
         <v>1899.0</v>
       </c>
       <c r="D49" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E49" t="n">
         <v>1883.0</v>
@@ -7618,7 +6588,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B50" t="n">
         <v>1840.0</v>
@@ -7627,7 +6597,7 @@
         <v>1899.0</v>
       </c>
       <c r="D50" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E50" t="n">
         <v>1884.0</v>
@@ -7638,7 +6608,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B51" t="n">
         <v>1840.0</v>
@@ -7647,7 +6617,7 @@
         <v>1899.0</v>
       </c>
       <c r="D51" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E51" t="n">
         <v>1885.0</v>
@@ -7658,7 +6628,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B52" t="n">
         <v>1840.0</v>
@@ -7667,7 +6637,7 @@
         <v>1899.0</v>
       </c>
       <c r="D52" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E52" t="n">
         <v>1890.0</v>
@@ -7678,7 +6648,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B53" t="n">
         <v>1840.0</v>
@@ -7687,7 +6657,7 @@
         <v>1899.0</v>
       </c>
       <c r="D53" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E53" t="n">
         <v>1891.0</v>
@@ -7698,7 +6668,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B54" t="n">
         <v>1840.0</v>
@@ -7707,7 +6677,7 @@
         <v>1899.0</v>
       </c>
       <c r="D54" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E54" t="n">
         <v>1892.0</v>
@@ -7718,7 +6688,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B55" t="n">
         <v>1840.0</v>
@@ -7727,7 +6697,7 @@
         <v>1899.0</v>
       </c>
       <c r="D55" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E55" t="n">
         <v>1894.0</v>
@@ -7738,7 +6708,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B56" t="n">
         <v>1840.0</v>
@@ -7747,7 +6717,7 @@
         <v>1899.0</v>
       </c>
       <c r="D56" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E56" t="n">
         <v>1897.0</v>
@@ -7758,7 +6728,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B57" t="n">
         <v>1840.0</v>
@@ -7767,7 +6737,7 @@
         <v>1899.0</v>
       </c>
       <c r="D57" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E57" t="n">
         <v>1898.0</v>
@@ -7778,7 +6748,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B58" t="n">
         <v>1840.0</v>
@@ -7787,7 +6757,7 @@
         <v>1899.0</v>
       </c>
       <c r="D58" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E58" t="n">
         <v>1899.0</v>
@@ -7798,7 +6768,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B59" t="n">
         <v>1900.0</v>
@@ -7807,7 +6777,7 @@
         <v>1919.0</v>
       </c>
       <c r="D59" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E59" t="n">
         <v>1900.0</v>
@@ -7818,7 +6788,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B60" t="n">
         <v>1900.0</v>
@@ -7827,7 +6797,7 @@
         <v>1919.0</v>
       </c>
       <c r="D60" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E60" t="n">
         <v>1901.0</v>
@@ -7838,7 +6808,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B61" t="n">
         <v>1900.0</v>
@@ -7847,7 +6817,7 @@
         <v>1919.0</v>
       </c>
       <c r="D61" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E61" t="n">
         <v>1902.0</v>
@@ -7858,7 +6828,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B62" t="n">
         <v>1900.0</v>
@@ -7867,7 +6837,7 @@
         <v>1919.0</v>
       </c>
       <c r="D62" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E62" t="n">
         <v>1903.0</v>
@@ -7878,7 +6848,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B63" t="n">
         <v>1900.0</v>
@@ -7887,7 +6857,7 @@
         <v>1919.0</v>
       </c>
       <c r="D63" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E63" t="n">
         <v>1904.0</v>
@@ -7898,7 +6868,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B64" t="n">
         <v>1900.0</v>
@@ -7907,7 +6877,7 @@
         <v>1919.0</v>
       </c>
       <c r="D64" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E64" t="n">
         <v>1905.0</v>
@@ -7918,7 +6888,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B65" t="n">
         <v>1900.0</v>
@@ -7927,7 +6897,7 @@
         <v>1919.0</v>
       </c>
       <c r="D65" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E65" t="n">
         <v>1906.0</v>
@@ -7938,7 +6908,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B66" t="n">
         <v>1900.0</v>
@@ -7947,7 +6917,7 @@
         <v>1919.0</v>
       </c>
       <c r="D66" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E66" t="n">
         <v>1907.0</v>
@@ -7958,7 +6928,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B67" t="n">
         <v>1900.0</v>
@@ -7967,7 +6937,7 @@
         <v>1919.0</v>
       </c>
       <c r="D67" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E67" t="n">
         <v>1908.0</v>
@@ -7978,7 +6948,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B68" t="n">
         <v>1900.0</v>
@@ -7987,7 +6957,7 @@
         <v>1919.0</v>
       </c>
       <c r="D68" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E68" t="n">
         <v>1909.0</v>
@@ -7998,7 +6968,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B69" t="n">
         <v>1900.0</v>
@@ -8007,7 +6977,7 @@
         <v>1919.0</v>
       </c>
       <c r="D69" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E69" t="n">
         <v>1910.0</v>
@@ -8018,7 +6988,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B70" t="n">
         <v>1900.0</v>
@@ -8027,7 +6997,7 @@
         <v>1919.0</v>
       </c>
       <c r="D70" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E70" t="n">
         <v>1911.0</v>
@@ -8038,7 +7008,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B71" t="n">
         <v>1900.0</v>
@@ -8047,7 +7017,7 @@
         <v>1919.0</v>
       </c>
       <c r="D71" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E71" t="n">
         <v>1912.0</v>
@@ -8058,7 +7028,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B72" t="n">
         <v>1900.0</v>
@@ -8067,7 +7037,7 @@
         <v>1919.0</v>
       </c>
       <c r="D72" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E72" t="n">
         <v>1914.0</v>
@@ -8078,7 +7048,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B73" t="n">
         <v>1900.0</v>
@@ -8087,7 +7057,7 @@
         <v>1919.0</v>
       </c>
       <c r="D73" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E73" t="n">
         <v>1917.0</v>
@@ -8098,7 +7068,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B74" t="n">
         <v>1900.0</v>
@@ -8107,7 +7077,7 @@
         <v>1919.0</v>
       </c>
       <c r="D74" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E74" t="n">
         <v>1918.0</v>
@@ -8118,7 +7088,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="B75" t="n">
         <v>1900.0</v>
@@ -8127,7 +7097,7 @@
         <v>1919.0</v>
       </c>
       <c r="D75" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="E75" t="n">
         <v>1919.0</v>
@@ -8151,68 +7121,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>597</v>
+        <v>535</v>
       </c>
       <c r="B1" t="s">
-        <v>598</v>
+        <v>536</v>
       </c>
       <c r="C1" t="s">
-        <v>599</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>543</v>
       </c>
       <c r="C2" t="s">
-        <v>606</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
-        <v>607</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C4" t="s">
-        <v>608</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>603</v>
+        <v>541</v>
       </c>
       <c r="B5" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>604</v>
+        <v>542</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
       <c r="C6" t="s">
-        <v>610</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/www/docs/Persia_1520_1919_all_data.xlsx
+++ b/www/docs/Persia_1520_1919_all_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="584">
   <si>
     <t>Webmapper code</t>
   </si>
@@ -1586,6 +1586,111 @@
   </si>
   <si>
     <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>2046</t>
+  </si>
+  <si>
+    <t>2047</t>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>2050</t>
   </si>
   <si>
     <t>geacron/823</t>
@@ -3284,17 +3389,122 @@
       <c r="TD1" t="s">
         <v>523</v>
       </c>
+      <c r="TE1" t="s">
+        <v>524</v>
+      </c>
+      <c r="TF1" t="s">
+        <v>525</v>
+      </c>
+      <c r="TG1" t="s">
+        <v>526</v>
+      </c>
+      <c r="TH1" t="s">
+        <v>527</v>
+      </c>
+      <c r="TI1" t="s">
+        <v>528</v>
+      </c>
+      <c r="TJ1" t="s">
+        <v>529</v>
+      </c>
+      <c r="TK1" t="s">
+        <v>530</v>
+      </c>
+      <c r="TL1" t="s">
+        <v>531</v>
+      </c>
+      <c r="TM1" t="s">
+        <v>532</v>
+      </c>
+      <c r="TN1" t="s">
+        <v>533</v>
+      </c>
+      <c r="TO1" t="s">
+        <v>534</v>
+      </c>
+      <c r="TP1" t="s">
+        <v>535</v>
+      </c>
+      <c r="TQ1" t="s">
+        <v>536</v>
+      </c>
+      <c r="TR1" t="s">
+        <v>537</v>
+      </c>
+      <c r="TS1" t="s">
+        <v>538</v>
+      </c>
+      <c r="TT1" t="s">
+        <v>539</v>
+      </c>
+      <c r="TU1" t="s">
+        <v>540</v>
+      </c>
+      <c r="TV1" t="s">
+        <v>541</v>
+      </c>
+      <c r="TW1" t="s">
+        <v>542</v>
+      </c>
+      <c r="TX1" t="s">
+        <v>543</v>
+      </c>
+      <c r="TY1" t="s">
+        <v>544</v>
+      </c>
+      <c r="TZ1" t="s">
+        <v>545</v>
+      </c>
+      <c r="UA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="UB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="UC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="UD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="UE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="UF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="UG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="UH1" t="s">
+        <v>553</v>
+      </c>
+      <c r="UI1" t="s">
+        <v>554</v>
+      </c>
+      <c r="UJ1" t="s">
+        <v>555</v>
+      </c>
+      <c r="UK1" t="s">
+        <v>556</v>
+      </c>
+      <c r="UL1" t="s">
+        <v>557</v>
+      </c>
+      <c r="UM1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>559</v>
       </c>
       <c r="B2" t="n">
         <v>823.0</v>
       </c>
       <c r="C2"/>
       <c r="D2" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="E2" t="n">
         <v>1800.0</v>
@@ -3303,10 +3513,10 @@
         <v>1819.0</v>
       </c>
       <c r="G2" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="H2" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -3836,17 +4046,52 @@
       <c r="TB2"/>
       <c r="TC2"/>
       <c r="TD2"/>
+      <c r="TE2"/>
+      <c r="TF2"/>
+      <c r="TG2"/>
+      <c r="TH2"/>
+      <c r="TI2"/>
+      <c r="TJ2"/>
+      <c r="TK2"/>
+      <c r="TL2"/>
+      <c r="TM2"/>
+      <c r="TN2"/>
+      <c r="TO2"/>
+      <c r="TP2"/>
+      <c r="TQ2"/>
+      <c r="TR2"/>
+      <c r="TS2"/>
+      <c r="TT2"/>
+      <c r="TU2"/>
+      <c r="TV2"/>
+      <c r="TW2"/>
+      <c r="TX2"/>
+      <c r="TY2"/>
+      <c r="TZ2"/>
+      <c r="UA2"/>
+      <c r="UB2"/>
+      <c r="UC2"/>
+      <c r="UD2"/>
+      <c r="UE2"/>
+      <c r="UF2"/>
+      <c r="UG2"/>
+      <c r="UH2"/>
+      <c r="UI2"/>
+      <c r="UJ2"/>
+      <c r="UK2"/>
+      <c r="UL2"/>
+      <c r="UM2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
       <c r="B3" t="n">
         <v>824.0</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="E3" t="n">
         <v>1820.0</v>
@@ -3855,10 +4100,10 @@
         <v>1839.0</v>
       </c>
       <c r="G3" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="H3" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -4386,17 +4631,52 @@
       <c r="TB3"/>
       <c r="TC3"/>
       <c r="TD3"/>
+      <c r="TE3"/>
+      <c r="TF3"/>
+      <c r="TG3"/>
+      <c r="TH3"/>
+      <c r="TI3"/>
+      <c r="TJ3"/>
+      <c r="TK3"/>
+      <c r="TL3"/>
+      <c r="TM3"/>
+      <c r="TN3"/>
+      <c r="TO3"/>
+      <c r="TP3"/>
+      <c r="TQ3"/>
+      <c r="TR3"/>
+      <c r="TS3"/>
+      <c r="TT3"/>
+      <c r="TU3"/>
+      <c r="TV3"/>
+      <c r="TW3"/>
+      <c r="TX3"/>
+      <c r="TY3"/>
+      <c r="TZ3"/>
+      <c r="UA3"/>
+      <c r="UB3"/>
+      <c r="UC3"/>
+      <c r="UD3"/>
+      <c r="UE3"/>
+      <c r="UF3"/>
+      <c r="UG3"/>
+      <c r="UH3"/>
+      <c r="UI3"/>
+      <c r="UJ3"/>
+      <c r="UK3"/>
+      <c r="UL3"/>
+      <c r="UM3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="B4" t="n">
         <v>825.0</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="E4" t="n">
         <v>1840.0</v>
@@ -4405,10 +4685,10 @@
         <v>1899.0</v>
       </c>
       <c r="G4" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="H4" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -5018,17 +5298,52 @@
       <c r="TB4"/>
       <c r="TC4"/>
       <c r="TD4"/>
+      <c r="TE4"/>
+      <c r="TF4"/>
+      <c r="TG4"/>
+      <c r="TH4"/>
+      <c r="TI4"/>
+      <c r="TJ4"/>
+      <c r="TK4"/>
+      <c r="TL4"/>
+      <c r="TM4"/>
+      <c r="TN4"/>
+      <c r="TO4"/>
+      <c r="TP4"/>
+      <c r="TQ4"/>
+      <c r="TR4"/>
+      <c r="TS4"/>
+      <c r="TT4"/>
+      <c r="TU4"/>
+      <c r="TV4"/>
+      <c r="TW4"/>
+      <c r="TX4"/>
+      <c r="TY4"/>
+      <c r="TZ4"/>
+      <c r="UA4"/>
+      <c r="UB4"/>
+      <c r="UC4"/>
+      <c r="UD4"/>
+      <c r="UE4"/>
+      <c r="UF4"/>
+      <c r="UG4"/>
+      <c r="UH4"/>
+      <c r="UI4"/>
+      <c r="UJ4"/>
+      <c r="UK4"/>
+      <c r="UL4"/>
+      <c r="UM4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="B5" t="n">
         <v>826.0</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="E5" t="n">
         <v>1900.0</v>
@@ -5037,10 +5352,10 @@
         <v>1919.0</v>
       </c>
       <c r="G5" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="H5" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -5592,6 +5907,41 @@
       <c r="TB5"/>
       <c r="TC5"/>
       <c r="TD5"/>
+      <c r="TE5"/>
+      <c r="TF5"/>
+      <c r="TG5"/>
+      <c r="TH5"/>
+      <c r="TI5"/>
+      <c r="TJ5"/>
+      <c r="TK5"/>
+      <c r="TL5"/>
+      <c r="TM5"/>
+      <c r="TN5"/>
+      <c r="TO5"/>
+      <c r="TP5"/>
+      <c r="TQ5"/>
+      <c r="TR5"/>
+      <c r="TS5"/>
+      <c r="TT5"/>
+      <c r="TU5"/>
+      <c r="TV5"/>
+      <c r="TW5"/>
+      <c r="TX5"/>
+      <c r="TY5"/>
+      <c r="TZ5"/>
+      <c r="UA5"/>
+      <c r="UB5"/>
+      <c r="UC5"/>
+      <c r="UD5"/>
+      <c r="UE5"/>
+      <c r="UF5"/>
+      <c r="UG5"/>
+      <c r="UH5"/>
+      <c r="UI5"/>
+      <c r="UJ5"/>
+      <c r="UK5"/>
+      <c r="UL5"/>
+      <c r="UM5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5611,24 +5961,129 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C1" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M1" t="s">
+        <v>532</v>
+      </c>
+      <c r="N1" t="s">
         <v>533</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>534</v>
+      </c>
+      <c r="P1" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R1" t="s">
+        <v>537</v>
+      </c>
+      <c r="S1" t="s">
+        <v>538</v>
+      </c>
+      <c r="T1" t="s">
+        <v>539</v>
+      </c>
+      <c r="U1" t="s">
+        <v>540</v>
+      </c>
+      <c r="V1" t="s">
+        <v>541</v>
+      </c>
+      <c r="W1" t="s">
+        <v>542</v>
+      </c>
+      <c r="X1" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>568</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B2" t="n">
         <v>1800.0</v>
@@ -5637,18 +6092,53 @@
         <v>1819.0</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E2" t="n">
+        <v>565</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2" t="n">
         <v>1809.0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="AO2" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B3" t="n">
         <v>1800.0</v>
@@ -5657,18 +6147,53 @@
         <v>1819.0</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E3" t="n">
+        <v>565</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3" t="n">
         <v>1812.0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="AO3" t="n">
         <v>11.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B4" t="n">
         <v>1800.0</v>
@@ -5677,18 +6202,53 @@
         <v>1819.0</v>
       </c>
       <c r="D4" t="s">
-        <v>530</v>
-      </c>
-      <c r="E4" t="n">
+        <v>565</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4" t="n">
         <v>1814.0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="AO4" t="n">
         <v>12.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B5" t="n">
         <v>1800.0</v>
@@ -5697,18 +6257,53 @@
         <v>1819.0</v>
       </c>
       <c r="D5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E5" t="n">
+        <v>565</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5" t="n">
         <v>1815.0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="AO5" t="n">
         <v>13.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B6" t="n">
         <v>1800.0</v>
@@ -5717,18 +6312,53 @@
         <v>1819.0</v>
       </c>
       <c r="D6" t="s">
-        <v>530</v>
-      </c>
-      <c r="E6" t="n">
+        <v>565</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6" t="n">
         <v>1816.0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="AO6" t="n">
         <v>12.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B7" t="n">
         <v>1800.0</v>
@@ -5737,18 +6367,53 @@
         <v>1819.0</v>
       </c>
       <c r="D7" t="s">
-        <v>530</v>
-      </c>
-      <c r="E7" t="n">
+        <v>565</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7" t="n">
         <v>1817.0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="AO7" t="n">
         <v>12.93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B8" t="n">
         <v>1820.0</v>
@@ -5757,18 +6422,53 @@
         <v>1839.0</v>
       </c>
       <c r="D8" t="s">
-        <v>530</v>
-      </c>
-      <c r="E8" t="n">
+        <v>565</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8" t="n">
         <v>1820.0</v>
       </c>
-      <c r="F8" t="n">
+      <c r="AO8" t="n">
         <v>11.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B9" t="n">
         <v>1820.0</v>
@@ -5777,18 +6477,53 @@
         <v>1839.0</v>
       </c>
       <c r="D9" t="s">
-        <v>530</v>
-      </c>
-      <c r="E9" t="n">
+        <v>565</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9" t="n">
         <v>1824.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="AO9" t="n">
         <v>13.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B10" t="n">
         <v>1820.0</v>
@@ -5797,18 +6532,53 @@
         <v>1839.0</v>
       </c>
       <c r="D10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E10" t="n">
+        <v>565</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10" t="n">
         <v>1825.0</v>
       </c>
-      <c r="F10" t="n">
+      <c r="AO10" t="n">
         <v>17.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B11" t="n">
         <v>1820.0</v>
@@ -5817,18 +6587,53 @@
         <v>1839.0</v>
       </c>
       <c r="D11" t="s">
-        <v>530</v>
-      </c>
-      <c r="E11" t="n">
+        <v>565</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11" t="n">
         <v>1826.0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="AO11" t="n">
         <v>17.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B12" t="n">
         <v>1820.0</v>
@@ -5837,18 +6642,53 @@
         <v>1839.0</v>
       </c>
       <c r="D12" t="s">
-        <v>530</v>
-      </c>
-      <c r="E12" t="n">
+        <v>565</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12" t="n">
         <v>1834.0</v>
       </c>
-      <c r="F12" t="n">
+      <c r="AO12" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B13" t="n">
         <v>1840.0</v>
@@ -5857,18 +6697,53 @@
         <v>1899.0</v>
       </c>
       <c r="D13" t="s">
-        <v>530</v>
-      </c>
-      <c r="E13" t="n">
+        <v>565</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13" t="n">
         <v>1842.0</v>
       </c>
-      <c r="F13" t="n">
+      <c r="AO13" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B14" t="n">
         <v>1840.0</v>
@@ -5877,18 +6752,53 @@
         <v>1899.0</v>
       </c>
       <c r="D14" t="s">
-        <v>530</v>
-      </c>
-      <c r="E14" t="n">
+        <v>565</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14" t="n">
         <v>1844.0</v>
       </c>
-      <c r="F14" t="n">
+      <c r="AO14" t="n">
         <v>20.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B15" t="n">
         <v>1840.0</v>
@@ -5897,18 +6807,53 @@
         <v>1899.0</v>
       </c>
       <c r="D15" t="s">
-        <v>530</v>
-      </c>
-      <c r="E15" t="n">
+        <v>565</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15" t="n">
         <v>1845.0</v>
       </c>
-      <c r="F15" t="n">
+      <c r="AO15" t="n">
         <v>21.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B16" t="n">
         <v>1840.0</v>
@@ -5917,18 +6862,53 @@
         <v>1899.0</v>
       </c>
       <c r="D16" t="s">
-        <v>530</v>
-      </c>
-      <c r="E16" t="n">
+        <v>565</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16" t="n">
         <v>1846.0</v>
       </c>
-      <c r="F16" t="n">
+      <c r="AO16" t="n">
         <v>21.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B17" t="n">
         <v>1840.0</v>
@@ -5937,18 +6917,53 @@
         <v>1899.0</v>
       </c>
       <c r="D17" t="s">
-        <v>530</v>
-      </c>
-      <c r="E17" t="n">
+        <v>565</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17" t="n">
         <v>1847.0</v>
       </c>
-      <c r="F17" t="n">
+      <c r="AO17" t="n">
         <v>21.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B18" t="n">
         <v>1840.0</v>
@@ -5957,18 +6972,53 @@
         <v>1899.0</v>
       </c>
       <c r="D18" t="s">
-        <v>530</v>
-      </c>
-      <c r="E18" t="n">
+        <v>565</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18" t="n">
         <v>1848.0</v>
       </c>
-      <c r="F18" t="n">
+      <c r="AO18" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B19" t="n">
         <v>1840.0</v>
@@ -5977,18 +7027,53 @@
         <v>1899.0</v>
       </c>
       <c r="D19" t="s">
-        <v>530</v>
-      </c>
-      <c r="E19" t="n">
+        <v>565</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19" t="n">
         <v>1851.0</v>
       </c>
-      <c r="F19" t="n">
+      <c r="AO19" t="n">
         <v>22.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B20" t="n">
         <v>1840.0</v>
@@ -5997,18 +7082,53 @@
         <v>1899.0</v>
       </c>
       <c r="D20" t="s">
-        <v>530</v>
-      </c>
-      <c r="E20" t="n">
+        <v>565</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20" t="n">
         <v>1852.0</v>
       </c>
-      <c r="F20" t="n">
+      <c r="AO20" t="n">
         <v>21.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B21" t="n">
         <v>1840.0</v>
@@ -6017,18 +7137,53 @@
         <v>1899.0</v>
       </c>
       <c r="D21" t="s">
-        <v>530</v>
-      </c>
-      <c r="E21" t="n">
+        <v>565</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21" t="n">
         <v>1853.0</v>
       </c>
-      <c r="F21" t="n">
+      <c r="AO21" t="n">
         <v>21.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B22" t="n">
         <v>1840.0</v>
@@ -6037,18 +7192,53 @@
         <v>1899.0</v>
       </c>
       <c r="D22" t="s">
-        <v>530</v>
-      </c>
-      <c r="E22" t="n">
+        <v>565</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22" t="n">
         <v>1854.0</v>
       </c>
-      <c r="F22" t="n">
+      <c r="AO22" t="n">
         <v>22.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B23" t="n">
         <v>1840.0</v>
@@ -6057,18 +7247,53 @@
         <v>1899.0</v>
       </c>
       <c r="D23" t="s">
-        <v>530</v>
-      </c>
-      <c r="E23" t="n">
+        <v>565</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23" t="n">
         <v>1856.0</v>
       </c>
-      <c r="F23" t="n">
+      <c r="AO23" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B24" t="n">
         <v>1840.0</v>
@@ -6077,18 +7302,53 @@
         <v>1899.0</v>
       </c>
       <c r="D24" t="s">
-        <v>530</v>
-      </c>
-      <c r="E24" t="n">
+        <v>565</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24" t="n">
         <v>1857.0</v>
       </c>
-      <c r="F24" t="n">
+      <c r="AO24" t="n">
         <v>22.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B25" t="n">
         <v>1840.0</v>
@@ -6097,18 +7357,53 @@
         <v>1899.0</v>
       </c>
       <c r="D25" t="s">
-        <v>530</v>
-      </c>
-      <c r="E25" t="n">
+        <v>565</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25" t="n">
         <v>1858.0</v>
       </c>
-      <c r="F25" t="n">
+      <c r="AO25" t="n">
         <v>22.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B26" t="n">
         <v>1840.0</v>
@@ -6117,18 +7412,53 @@
         <v>1899.0</v>
       </c>
       <c r="D26" t="s">
-        <v>530</v>
-      </c>
-      <c r="E26" t="n">
+        <v>565</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26" t="n">
         <v>1859.0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="AO26" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B27" t="n">
         <v>1840.0</v>
@@ -6137,18 +7467,53 @@
         <v>1899.0</v>
       </c>
       <c r="D27" t="s">
-        <v>530</v>
-      </c>
-      <c r="E27" t="n">
+        <v>565</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27" t="n">
         <v>1860.0</v>
       </c>
-      <c r="F27" t="n">
+      <c r="AO27" t="n">
         <v>22.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B28" t="n">
         <v>1840.0</v>
@@ -6157,18 +7522,53 @@
         <v>1899.0</v>
       </c>
       <c r="D28" t="s">
-        <v>530</v>
-      </c>
-      <c r="E28" t="n">
+        <v>565</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28" t="n">
         <v>1861.0</v>
       </c>
-      <c r="F28" t="n">
+      <c r="AO28" t="n">
         <v>22.45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B29" t="n">
         <v>1840.0</v>
@@ -6177,18 +7577,53 @@
         <v>1899.0</v>
       </c>
       <c r="D29" t="s">
-        <v>530</v>
-      </c>
-      <c r="E29" t="n">
+        <v>565</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29" t="n">
         <v>1862.0</v>
       </c>
-      <c r="F29" t="n">
+      <c r="AO29" t="n">
         <v>22.55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B30" t="n">
         <v>1840.0</v>
@@ -6197,18 +7632,53 @@
         <v>1899.0</v>
       </c>
       <c r="D30" t="s">
-        <v>530</v>
-      </c>
-      <c r="E30" t="n">
+        <v>565</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30" t="n">
         <v>1863.0</v>
       </c>
-      <c r="F30" t="n">
+      <c r="AO30" t="n">
         <v>22.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B31" t="n">
         <v>1840.0</v>
@@ -6217,18 +7687,53 @@
         <v>1899.0</v>
       </c>
       <c r="D31" t="s">
-        <v>530</v>
-      </c>
-      <c r="E31" t="n">
+        <v>565</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31" t="n">
         <v>1864.0</v>
       </c>
-      <c r="F31" t="n">
+      <c r="AO31" t="n">
         <v>22.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B32" t="n">
         <v>1840.0</v>
@@ -6237,18 +7742,53 @@
         <v>1899.0</v>
       </c>
       <c r="D32" t="s">
-        <v>530</v>
-      </c>
-      <c r="E32" t="n">
+        <v>565</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32" t="n">
         <v>1866.0</v>
       </c>
-      <c r="F32" t="n">
+      <c r="AO32" t="n">
         <v>23.92</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B33" t="n">
         <v>1840.0</v>
@@ -6257,18 +7797,53 @@
         <v>1899.0</v>
       </c>
       <c r="D33" t="s">
-        <v>530</v>
-      </c>
-      <c r="E33" t="n">
+        <v>565</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33" t="n">
         <v>1867.0</v>
       </c>
-      <c r="F33" t="n">
+      <c r="AO33" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B34" t="n">
         <v>1840.0</v>
@@ -6277,18 +7852,53 @@
         <v>1899.0</v>
       </c>
       <c r="D34" t="s">
-        <v>530</v>
-      </c>
-      <c r="E34" t="n">
+        <v>565</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34" t="n">
         <v>1868.0</v>
       </c>
-      <c r="F34" t="n">
+      <c r="AO34" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B35" t="n">
         <v>1840.0</v>
@@ -6297,18 +7907,53 @@
         <v>1899.0</v>
       </c>
       <c r="D35" t="s">
-        <v>530</v>
-      </c>
-      <c r="E35" t="n">
+        <v>565</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35" t="n">
         <v>1869.0</v>
       </c>
-      <c r="F35" t="n">
+      <c r="AO35" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B36" t="n">
         <v>1840.0</v>
@@ -6317,18 +7962,53 @@
         <v>1899.0</v>
       </c>
       <c r="D36" t="s">
-        <v>530</v>
-      </c>
-      <c r="E36" t="n">
+        <v>565</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36" t="n">
         <v>1870.0</v>
       </c>
-      <c r="F36" t="n">
+      <c r="AO36" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B37" t="n">
         <v>1840.0</v>
@@ -6337,18 +8017,53 @@
         <v>1899.0</v>
       </c>
       <c r="D37" t="s">
-        <v>530</v>
-      </c>
-      <c r="E37" t="n">
+        <v>565</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37" t="n">
         <v>1871.0</v>
       </c>
-      <c r="F37" t="n">
+      <c r="AO37" t="n">
         <v>23.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B38" t="n">
         <v>1840.0</v>
@@ -6357,18 +8072,53 @@
         <v>1899.0</v>
       </c>
       <c r="D38" t="s">
-        <v>530</v>
-      </c>
-      <c r="E38" t="n">
+        <v>565</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38" t="n">
         <v>1872.0</v>
       </c>
-      <c r="F38" t="n">
+      <c r="AO38" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B39" t="n">
         <v>1840.0</v>
@@ -6377,18 +8127,53 @@
         <v>1899.0</v>
       </c>
       <c r="D39" t="s">
-        <v>530</v>
-      </c>
-      <c r="E39" t="n">
+        <v>565</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39" t="n">
         <v>1873.0</v>
       </c>
-      <c r="F39" t="n">
+      <c r="AO39" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B40" t="n">
         <v>1840.0</v>
@@ -6397,18 +8182,53 @@
         <v>1899.0</v>
       </c>
       <c r="D40" t="s">
-        <v>530</v>
-      </c>
-      <c r="E40" t="n">
+        <v>565</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40" t="n">
         <v>1874.0</v>
       </c>
-      <c r="F40" t="n">
+      <c r="AO40" t="n">
         <v>23.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B41" t="n">
         <v>1840.0</v>
@@ -6417,18 +8237,53 @@
         <v>1899.0</v>
       </c>
       <c r="D41" t="s">
-        <v>530</v>
-      </c>
-      <c r="E41" t="n">
+        <v>565</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41" t="n">
         <v>1875.0</v>
       </c>
-      <c r="F41" t="n">
+      <c r="AO41" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B42" t="n">
         <v>1840.0</v>
@@ -6437,18 +8292,53 @@
         <v>1899.0</v>
       </c>
       <c r="D42" t="s">
-        <v>530</v>
-      </c>
-      <c r="E42" t="n">
+        <v>565</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42" t="n">
         <v>1876.0</v>
       </c>
-      <c r="F42" t="n">
+      <c r="AO42" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B43" t="n">
         <v>1840.0</v>
@@ -6457,18 +8347,53 @@
         <v>1899.0</v>
       </c>
       <c r="D43" t="s">
-        <v>530</v>
-      </c>
-      <c r="E43" t="n">
+        <v>565</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43" t="n">
         <v>1877.0</v>
       </c>
-      <c r="F43" t="n">
+      <c r="AO43" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B44" t="n">
         <v>1840.0</v>
@@ -6477,18 +8402,53 @@
         <v>1899.0</v>
       </c>
       <c r="D44" t="s">
-        <v>530</v>
-      </c>
-      <c r="E44" t="n">
+        <v>565</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44" t="n">
         <v>1878.0</v>
       </c>
-      <c r="F44" t="n">
+      <c r="AO44" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B45" t="n">
         <v>1840.0</v>
@@ -6497,18 +8457,53 @@
         <v>1899.0</v>
       </c>
       <c r="D45" t="s">
-        <v>530</v>
-      </c>
-      <c r="E45" t="n">
+        <v>565</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45" t="n">
         <v>1879.0</v>
       </c>
-      <c r="F45" t="n">
+      <c r="AO45" t="n">
         <v>27.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B46" t="n">
         <v>1840.0</v>
@@ -6517,18 +8512,53 @@
         <v>1899.0</v>
       </c>
       <c r="D46" t="s">
-        <v>530</v>
-      </c>
-      <c r="E46" t="n">
+        <v>565</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46" t="n">
         <v>1880.0</v>
       </c>
-      <c r="F46" t="n">
+      <c r="AO46" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B47" t="n">
         <v>1840.0</v>
@@ -6537,18 +8567,53 @@
         <v>1899.0</v>
       </c>
       <c r="D47" t="s">
-        <v>530</v>
-      </c>
-      <c r="E47" t="n">
+        <v>565</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47" t="n">
         <v>1881.0</v>
       </c>
-      <c r="F47" t="n">
+      <c r="AO47" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B48" t="n">
         <v>1840.0</v>
@@ -6557,18 +8622,53 @@
         <v>1899.0</v>
       </c>
       <c r="D48" t="s">
-        <v>530</v>
-      </c>
-      <c r="E48" t="n">
+        <v>565</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48" t="n">
         <v>1882.0</v>
       </c>
-      <c r="F48" t="n">
+      <c r="AO48" t="n">
         <v>26.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B49" t="n">
         <v>1840.0</v>
@@ -6577,18 +8677,53 @@
         <v>1899.0</v>
       </c>
       <c r="D49" t="s">
-        <v>530</v>
-      </c>
-      <c r="E49" t="n">
+        <v>565</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49" t="n">
         <v>1883.0</v>
       </c>
-      <c r="F49" t="n">
+      <c r="AO49" t="n">
         <v>28.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B50" t="n">
         <v>1840.0</v>
@@ -6597,18 +8732,53 @@
         <v>1899.0</v>
       </c>
       <c r="D50" t="s">
-        <v>530</v>
-      </c>
-      <c r="E50" t="n">
+        <v>565</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50" t="n">
         <v>1884.0</v>
       </c>
-      <c r="F50" t="n">
+      <c r="AO50" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B51" t="n">
         <v>1840.0</v>
@@ -6617,18 +8787,53 @@
         <v>1899.0</v>
       </c>
       <c r="D51" t="s">
-        <v>530</v>
-      </c>
-      <c r="E51" t="n">
+        <v>565</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51" t="n">
         <v>1885.0</v>
       </c>
-      <c r="F51" t="n">
+      <c r="AO51" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B52" t="n">
         <v>1840.0</v>
@@ -6637,18 +8842,53 @@
         <v>1899.0</v>
       </c>
       <c r="D52" t="s">
-        <v>530</v>
-      </c>
-      <c r="E52" t="n">
+        <v>565</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52" t="n">
         <v>1890.0</v>
       </c>
-      <c r="F52" t="n">
+      <c r="AO52" t="n">
         <v>35.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B53" t="n">
         <v>1840.0</v>
@@ -6657,18 +8897,53 @@
         <v>1899.0</v>
       </c>
       <c r="D53" t="s">
-        <v>530</v>
-      </c>
-      <c r="E53" t="n">
+        <v>565</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53" t="n">
         <v>1891.0</v>
       </c>
-      <c r="F53" t="n">
+      <c r="AO53" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B54" t="n">
         <v>1840.0</v>
@@ -6677,18 +8952,53 @@
         <v>1899.0</v>
       </c>
       <c r="D54" t="s">
-        <v>530</v>
-      </c>
-      <c r="E54" t="n">
+        <v>565</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54" t="n">
         <v>1892.0</v>
       </c>
-      <c r="F54" t="n">
+      <c r="AO54" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B55" t="n">
         <v>1840.0</v>
@@ -6697,18 +9007,53 @@
         <v>1899.0</v>
       </c>
       <c r="D55" t="s">
-        <v>530</v>
-      </c>
-      <c r="E55" t="n">
+        <v>565</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55" t="n">
         <v>1894.0</v>
       </c>
-      <c r="F55" t="n">
+      <c r="AO55" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B56" t="n">
         <v>1840.0</v>
@@ -6717,18 +9062,53 @@
         <v>1899.0</v>
       </c>
       <c r="D56" t="s">
-        <v>530</v>
-      </c>
-      <c r="E56" t="n">
+        <v>565</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56"/>
+      <c r="AN56" t="n">
         <v>1897.0</v>
       </c>
-      <c r="F56" t="n">
+      <c r="AO56" t="n">
         <v>51.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B57" t="n">
         <v>1840.0</v>
@@ -6737,18 +9117,53 @@
         <v>1899.0</v>
       </c>
       <c r="D57" t="s">
-        <v>530</v>
-      </c>
-      <c r="E57" t="n">
+        <v>565</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57" t="n">
         <v>1898.0</v>
       </c>
-      <c r="F57" t="n">
+      <c r="AO57" t="n">
         <v>50.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B58" t="n">
         <v>1840.0</v>
@@ -6757,18 +9172,53 @@
         <v>1899.0</v>
       </c>
       <c r="D58" t="s">
-        <v>530</v>
-      </c>
-      <c r="E58" t="n">
+        <v>565</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58" t="n">
         <v>1899.0</v>
       </c>
-      <c r="F58" t="n">
+      <c r="AO58" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B59" t="n">
         <v>1900.0</v>
@@ -6777,18 +9227,53 @@
         <v>1919.0</v>
       </c>
       <c r="D59" t="s">
-        <v>530</v>
-      </c>
-      <c r="E59" t="n">
+        <v>565</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59" t="n">
         <v>1900.0</v>
       </c>
-      <c r="F59" t="n">
+      <c r="AO59" t="n">
         <v>51.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B60" t="n">
         <v>1900.0</v>
@@ -6797,18 +9282,53 @@
         <v>1919.0</v>
       </c>
       <c r="D60" t="s">
-        <v>530</v>
-      </c>
-      <c r="E60" t="n">
+        <v>565</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60" t="n">
         <v>1901.0</v>
       </c>
-      <c r="F60" t="n">
+      <c r="AO60" t="n">
         <v>52.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B61" t="n">
         <v>1900.0</v>
@@ -6817,18 +9337,53 @@
         <v>1919.0</v>
       </c>
       <c r="D61" t="s">
-        <v>530</v>
-      </c>
-      <c r="E61" t="n">
+        <v>565</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61" t="n">
         <v>1902.0</v>
       </c>
-      <c r="F61" t="n">
+      <c r="AO61" t="n">
         <v>55.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B62" t="n">
         <v>1900.0</v>
@@ -6837,18 +9392,53 @@
         <v>1919.0</v>
       </c>
       <c r="D62" t="s">
-        <v>530</v>
-      </c>
-      <c r="E62" t="n">
+        <v>565</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62" t="n">
         <v>1903.0</v>
       </c>
-      <c r="F62" t="n">
+      <c r="AO62" t="n">
         <v>55.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B63" t="n">
         <v>1900.0</v>
@@ -6857,18 +9447,53 @@
         <v>1919.0</v>
       </c>
       <c r="D63" t="s">
-        <v>530</v>
-      </c>
-      <c r="E63" t="n">
+        <v>565</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63" t="n">
         <v>1904.0</v>
       </c>
-      <c r="F63" t="n">
+      <c r="AO63" t="n">
         <v>57.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B64" t="n">
         <v>1900.0</v>
@@ -6877,18 +9502,53 @@
         <v>1919.0</v>
       </c>
       <c r="D64" t="s">
-        <v>530</v>
-      </c>
-      <c r="E64" t="n">
+        <v>565</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64" t="n">
         <v>1905.0</v>
       </c>
-      <c r="F64" t="n">
+      <c r="AO64" t="n">
         <v>60.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B65" t="n">
         <v>1900.0</v>
@@ -6897,18 +9557,53 @@
         <v>1919.0</v>
       </c>
       <c r="D65" t="s">
-        <v>530</v>
-      </c>
-      <c r="E65" t="n">
+        <v>565</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+      <c r="AL65"/>
+      <c r="AM65"/>
+      <c r="AN65" t="n">
         <v>1906.0</v>
       </c>
-      <c r="F65" t="n">
+      <c r="AO65" t="n">
         <v>60.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B66" t="n">
         <v>1900.0</v>
@@ -6917,18 +9612,53 @@
         <v>1919.0</v>
       </c>
       <c r="D66" t="s">
-        <v>530</v>
-      </c>
-      <c r="E66" t="n">
+        <v>565</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66" t="n">
         <v>1907.0</v>
       </c>
-      <c r="F66" t="n">
+      <c r="AO66" t="n">
         <v>55.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B67" t="n">
         <v>1900.0</v>
@@ -6937,18 +9667,53 @@
         <v>1919.0</v>
       </c>
       <c r="D67" t="s">
-        <v>530</v>
-      </c>
-      <c r="E67" t="n">
+        <v>565</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
+      <c r="AL67"/>
+      <c r="AM67"/>
+      <c r="AN67" t="n">
         <v>1908.0</v>
       </c>
-      <c r="F67" t="n">
+      <c r="AO67" t="n">
         <v>51.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B68" t="n">
         <v>1900.0</v>
@@ -6957,18 +9722,53 @@
         <v>1919.0</v>
       </c>
       <c r="D68" t="s">
-        <v>530</v>
-      </c>
-      <c r="E68" t="n">
+        <v>565</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
+      <c r="AL68"/>
+      <c r="AM68"/>
+      <c r="AN68" t="n">
         <v>1909.0</v>
       </c>
-      <c r="F68" t="n">
+      <c r="AO68" t="n">
         <v>53.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B69" t="n">
         <v>1900.0</v>
@@ -6977,18 +9777,53 @@
         <v>1919.0</v>
       </c>
       <c r="D69" t="s">
-        <v>530</v>
-      </c>
-      <c r="E69" t="n">
+        <v>565</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+      <c r="AK69"/>
+      <c r="AL69"/>
+      <c r="AM69"/>
+      <c r="AN69" t="n">
         <v>1910.0</v>
       </c>
-      <c r="F69" t="n">
+      <c r="AO69" t="n">
         <v>54.25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B70" t="n">
         <v>1900.0</v>
@@ -6997,18 +9832,53 @@
         <v>1919.0</v>
       </c>
       <c r="D70" t="s">
-        <v>530</v>
-      </c>
-      <c r="E70" t="n">
+        <v>565</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70"/>
+      <c r="AI70"/>
+      <c r="AJ70"/>
+      <c r="AK70"/>
+      <c r="AL70"/>
+      <c r="AM70"/>
+      <c r="AN70" t="n">
         <v>1911.0</v>
       </c>
-      <c r="F70" t="n">
+      <c r="AO70" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B71" t="n">
         <v>1900.0</v>
@@ -7017,18 +9887,53 @@
         <v>1919.0</v>
       </c>
       <c r="D71" t="s">
-        <v>530</v>
-      </c>
-      <c r="E71" t="n">
+        <v>565</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
+      <c r="AL71"/>
+      <c r="AM71"/>
+      <c r="AN71" t="n">
         <v>1912.0</v>
       </c>
-      <c r="F71" t="n">
+      <c r="AO71" t="n">
         <v>54.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B72" t="n">
         <v>1900.0</v>
@@ -7037,18 +9942,53 @@
         <v>1919.0</v>
       </c>
       <c r="D72" t="s">
-        <v>530</v>
-      </c>
-      <c r="E72" t="n">
+        <v>565</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
+      <c r="AL72"/>
+      <c r="AM72"/>
+      <c r="AN72" t="n">
         <v>1914.0</v>
       </c>
-      <c r="F72" t="n">
+      <c r="AO72" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B73" t="n">
         <v>1900.0</v>
@@ -7057,18 +9997,53 @@
         <v>1919.0</v>
       </c>
       <c r="D73" t="s">
-        <v>530</v>
-      </c>
-      <c r="E73" t="n">
+        <v>565</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
+      <c r="AL73"/>
+      <c r="AM73"/>
+      <c r="AN73" t="n">
         <v>1917.0</v>
       </c>
-      <c r="F73" t="n">
+      <c r="AO73" t="n">
         <v>14.49275</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B74" t="n">
         <v>1900.0</v>
@@ -7077,18 +10052,53 @@
         <v>1919.0</v>
       </c>
       <c r="D74" t="s">
-        <v>530</v>
-      </c>
-      <c r="E74" t="n">
+        <v>565</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+      <c r="AL74"/>
+      <c r="AM74"/>
+      <c r="AN74" t="n">
         <v>1918.0</v>
       </c>
-      <c r="F74" t="n">
+      <c r="AO74" t="n">
         <v>13.69675</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="B75" t="n">
         <v>1900.0</v>
@@ -7097,12 +10107,47 @@
         <v>1919.0</v>
       </c>
       <c r="D75" t="s">
-        <v>530</v>
-      </c>
-      <c r="E75" t="n">
+        <v>565</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AJ75"/>
+      <c r="AK75"/>
+      <c r="AL75"/>
+      <c r="AM75"/>
+      <c r="AN75" t="n">
         <v>1919.0</v>
       </c>
-      <c r="F75" t="n">
+      <c r="AO75" t="n">
         <v>11.77718</v>
       </c>
     </row>
@@ -7121,68 +10166,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="B1" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="C1" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="B2" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C4" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="B5" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C5" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="B6" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
